--- a/experiments/ana-flavia-NCxNR-trim/sheets/relative-all_frequencies.xlsx
+++ b/experiments/ana-flavia-NCxNR-trim/sheets/relative-all_frequencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="258">
   <si>
     <t>total_sum</t>
   </si>
@@ -31,31 +31,31 @@
     <t>NR</t>
   </si>
   <si>
-    <t>210421121673</t>
-  </si>
-  <si>
-    <t>210421121674</t>
-  </si>
-  <si>
-    <t>210421121675</t>
-  </si>
-  <si>
-    <t>210421121676</t>
-  </si>
-  <si>
-    <t>210421121677</t>
-  </si>
-  <si>
-    <t>210421121678</t>
-  </si>
-  <si>
-    <t>210421121679</t>
-  </si>
-  <si>
-    <t>210421121680</t>
-  </si>
-  <si>
-    <t>210421121681</t>
+    <t>S210421121673</t>
+  </si>
+  <si>
+    <t>S210421121674</t>
+  </si>
+  <si>
+    <t>S210421121675</t>
+  </si>
+  <si>
+    <t>S210421121676</t>
+  </si>
+  <si>
+    <t>S210421121677</t>
+  </si>
+  <si>
+    <t>S210421121678</t>
+  </si>
+  <si>
+    <t>S210421121679</t>
+  </si>
+  <si>
+    <t>S210421121680</t>
+  </si>
+  <si>
+    <t>S210421121681</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -154,12 +154,12 @@
     <t>Clostridia_UCG-014</t>
   </si>
   <si>
+    <t>Rhodospirillales</t>
+  </si>
+  <si>
     <t>Enterobacterales</t>
   </si>
   <si>
-    <t>Rhodospirillales</t>
-  </si>
-  <si>
     <t>Monoglobales</t>
   </si>
   <si>
@@ -307,12 +307,12 @@
     <t>Acholeplasmataceae</t>
   </si>
   <si>
+    <t>Staphylococcaceae</t>
+  </si>
+  <si>
     <t>Burkholderiaceae</t>
   </si>
   <si>
-    <t>Staphylococcaceae</t>
-  </si>
-  <si>
     <t>Eggerthellaceae</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>Pseudomonadaceae</t>
   </si>
   <si>
+    <t>Defluviitaleaceae</t>
+  </si>
+  <si>
     <t>Aerococcaceae</t>
   </si>
   <si>
-    <t>Defluviitaleaceae</t>
-  </si>
-  <si>
     <t>Morganellaceae</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>[Clostridium]_methylpentosum_group</t>
   </si>
   <si>
+    <t>Mitochondria</t>
+  </si>
+  <si>
     <t>Helicobacteraceae</t>
   </si>
   <si>
-    <t>Mitochondria</t>
-  </si>
-  <si>
     <t>Caulobacteraceae</t>
   </si>
   <si>
@@ -433,15 +433,15 @@
     <t>Oscillibacter</t>
   </si>
   <si>
+    <t>Colidextribacter</t>
+  </si>
+  <si>
+    <t>Lachnoclostridium</t>
+  </si>
+  <si>
     <t>Blautia</t>
   </si>
   <si>
-    <t>Colidextribacter</t>
-  </si>
-  <si>
-    <t>Lachnoclostridium</t>
-  </si>
-  <si>
     <t>Streptococcus</t>
   </si>
   <si>
@@ -481,12 +481,12 @@
     <t>Candidatus_Saccharimonas</t>
   </si>
   <si>
+    <t>Coriobacteriaceae_UCG-002</t>
+  </si>
+  <si>
     <t>GCA-900066575</t>
   </si>
   <si>
-    <t>Coriobacteriaceae_UCG-002</t>
-  </si>
-  <si>
     <t>Butyricicoccus</t>
   </si>
   <si>
@@ -529,12 +529,12 @@
     <t>Staphylococcus</t>
   </si>
   <si>
+    <t>Fournierella</t>
+  </si>
+  <si>
     <t>Mucispirillum</t>
   </si>
   <si>
-    <t>Fournierella</t>
-  </si>
-  <si>
     <t>Anaerovorax</t>
   </si>
   <si>
@@ -544,39 +544,39 @@
     <t>Holdemania</t>
   </si>
   <si>
+    <t>Pseudomonas</t>
+  </si>
+  <si>
     <t>Anaerostipes</t>
   </si>
   <si>
-    <t>Pseudomonas</t>
-  </si>
-  <si>
     <t>Acetatifactor</t>
   </si>
   <si>
+    <t>Defluviitaleaceae_UCG-011</t>
+  </si>
+  <si>
     <t>Aerococcus</t>
   </si>
   <si>
-    <t>Defluviitaleaceae_UCG-011</t>
+    <t>Faecalibaculum</t>
   </si>
   <si>
     <t>Jeotgalicoccus</t>
   </si>
   <si>
-    <t>Faecalibaculum</t>
-  </si>
-  <si>
     <t>UCG-009</t>
   </si>
   <si>
     <t>Adlercreutzia</t>
   </si>
   <si>
+    <t>Enterorhabdus</t>
+  </si>
+  <si>
     <t>Paludicola</t>
   </si>
   <si>
-    <t>Enterorhabdus</t>
-  </si>
-  <si>
     <t>Lachnospiraceae_UCG-001</t>
   </si>
   <si>
@@ -625,21 +625,21 @@
     <t>[Eubacterium]_ventriosum_group</t>
   </si>
   <si>
+    <t>UBA1819</t>
+  </si>
+  <si>
     <t>UCG-007</t>
   </si>
   <si>
-    <t>UBA1819</t>
-  </si>
-  <si>
     <t>Haemophilus</t>
   </si>
   <si>
+    <t>Lactococcus</t>
+  </si>
+  <si>
     <t>Acinetobacter</t>
   </si>
   <si>
-    <t>Lactococcus</t>
-  </si>
-  <si>
     <t>Lachnospiraceae_FCS020_group</t>
   </si>
   <si>
@@ -658,24 +658,24 @@
     <t>Helicobacter</t>
   </si>
   <si>
+    <t>Candidatus_Soleaferrea</t>
+  </si>
+  <si>
     <t>Dorea</t>
   </si>
   <si>
-    <t>Candidatus_Soleaferrea</t>
-  </si>
-  <si>
     <t>Tuzzerella</t>
   </si>
   <si>
     <t>Brevundimonas</t>
   </si>
   <si>
+    <t>Sphingomonas</t>
+  </si>
+  <si>
     <t>Alcaligenes</t>
   </si>
   <si>
-    <t>Sphingomonas</t>
-  </si>
-  <si>
     <t>Rothia</t>
   </si>
   <si>
@@ -694,12 +694,12 @@
     <t>Lactobacillus_faecis</t>
   </si>
   <si>
+    <t>uncultured_Bacteroidales</t>
+  </si>
+  <si>
     <t>Lactobacillus_intestinalis</t>
   </si>
   <si>
-    <t>uncultured_Bacteroidales</t>
-  </si>
-  <si>
     <t>gut_metagenome</t>
   </si>
   <si>
@@ -785,9 +785,6 @@
   </si>
   <si>
     <t>Acinetobacter_ursingii</t>
-  </si>
-  <si>
-    <t>uncultured_Coriobacteriales</t>
   </si>
   <si>
     <t>Helicobacter_rodentium</t>
@@ -1295,40 +1292,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.78679</v>
+        <v>0.78717</v>
       </c>
       <c r="C2">
-        <v>0.78588</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="D2">
-        <v>0.78822</v>
+        <v>0.78838</v>
       </c>
       <c r="E2">
-        <v>0.65511</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.77278</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78467</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.87073</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.80665</v>
+        <v>0.80696</v>
       </c>
       <c r="J2">
-        <v>0.7895</v>
+        <v>0.7900700000000001</v>
       </c>
       <c r="K2">
-        <v>0.8579</v>
+        <v>0.8577399999999999</v>
       </c>
       <c r="L2">
-        <v>0.59941</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="M2">
-        <v>0.8848</v>
+        <v>0.88511</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1336,40 +1333,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.15983</v>
+        <v>0.15943</v>
       </c>
       <c r="C3">
-        <v>0.15656</v>
+        <v>0.15596</v>
       </c>
       <c r="D3">
-        <v>0.16499</v>
+        <v>0.16491</v>
       </c>
       <c r="E3">
-        <v>0.31092</v>
+        <v>0.30957</v>
       </c>
       <c r="F3">
-        <v>0.18223</v>
+        <v>0.18123</v>
       </c>
       <c r="G3">
-        <v>0.05151</v>
+        <v>0.05143</v>
       </c>
       <c r="H3">
-        <v>0.10092</v>
+        <v>0.10097</v>
       </c>
       <c r="I3">
-        <v>0.04332</v>
+        <v>0.04322</v>
       </c>
       <c r="J3">
-        <v>0.20601</v>
+        <v>0.20548</v>
       </c>
       <c r="K3">
-        <v>0.1373</v>
+        <v>0.13749</v>
       </c>
       <c r="L3">
-        <v>0.38555</v>
+        <v>0.38605</v>
       </c>
       <c r="M3">
-        <v>0.10934</v>
+        <v>0.10902</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1377,28 +1374,28 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.03512</v>
+        <v>0.03518</v>
       </c>
       <c r="C4">
-        <v>0.03384</v>
+        <v>0.0339</v>
       </c>
       <c r="D4">
-        <v>0.03713</v>
+        <v>0.03719</v>
       </c>
       <c r="E4">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F4">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G4">
-        <v>0.15166</v>
+        <v>0.15214</v>
       </c>
       <c r="H4">
-        <v>0.00313</v>
+        <v>0.00311</v>
       </c>
       <c r="I4">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1407,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M4">
         <v>4E-05</v>
@@ -1418,40 +1415,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.01539</v>
+        <v>0.01535</v>
       </c>
       <c r="C5">
         <v>0.02087</v>
       </c>
       <c r="D5">
-        <v>0.00674</v>
+        <v>0.00665</v>
       </c>
       <c r="E5">
-        <v>0.00342</v>
+        <v>0.00341</v>
       </c>
       <c r="F5">
-        <v>0.03972</v>
+        <v>0.03984</v>
       </c>
       <c r="G5">
-        <v>0.01212</v>
+        <v>0.0121</v>
       </c>
       <c r="H5">
-        <v>0.01884</v>
+        <v>0.01875</v>
       </c>
       <c r="I5">
-        <v>0.01421</v>
+        <v>0.01389</v>
       </c>
       <c r="J5">
-        <v>0.0027</v>
+        <v>0.00264</v>
       </c>
       <c r="K5">
-        <v>0.00469</v>
+        <v>0.00467</v>
       </c>
       <c r="L5">
-        <v>0.00419</v>
+        <v>0.0042</v>
       </c>
       <c r="M5">
-        <v>0.00302</v>
+        <v>0.00303</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1459,37 +1456,37 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.00127</v>
+        <v>0.00126</v>
       </c>
       <c r="C6">
-        <v>0.00048</v>
+        <v>0.00049</v>
       </c>
       <c r="D6">
-        <v>0.00251</v>
+        <v>0.00247</v>
       </c>
       <c r="E6">
         <v>0.00013</v>
       </c>
       <c r="F6">
-        <v>0.00099</v>
+        <v>0.00101</v>
       </c>
       <c r="G6">
-        <v>5E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="H6">
         <v>0.00046</v>
       </c>
       <c r="I6">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J6">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="K6">
         <v>0.00011</v>
       </c>
       <c r="L6">
-        <v>0.009310000000000001</v>
+        <v>0.00916</v>
       </c>
       <c r="M6">
         <v>0.00236</v>
@@ -1500,16 +1497,16 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.00118</v>
+        <v>0.00119</v>
       </c>
       <c r="C7">
-        <v>0.00182</v>
+        <v>0.00183</v>
       </c>
       <c r="D7">
         <v>0.00017</v>
       </c>
       <c r="E7">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F7">
         <v>0.00052</v>
@@ -1518,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.00475</v>
+        <v>0.00474</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M7">
         <v>0.00044</v>
@@ -1541,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C8">
         <v>0.00037</v>
@@ -1559,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1571,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1594,7 +1591,7 @@
         <v>0.00025</v>
       </c>
       <c r="F9">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1715,40 +1712,40 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.78679</v>
+        <v>0.78717</v>
       </c>
       <c r="C2">
-        <v>0.78588</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="D2">
-        <v>0.78822</v>
+        <v>0.78838</v>
       </c>
       <c r="E2">
-        <v>0.65511</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.77278</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78467</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.87073</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.80665</v>
+        <v>0.80696</v>
       </c>
       <c r="J2">
-        <v>0.7895</v>
+        <v>0.7900700000000001</v>
       </c>
       <c r="K2">
-        <v>0.8579</v>
+        <v>0.8577399999999999</v>
       </c>
       <c r="L2">
-        <v>0.59941</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="M2">
-        <v>0.8848</v>
+        <v>0.88511</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1756,40 +1753,40 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.12072</v>
+        <v>0.12044</v>
       </c>
       <c r="C3">
-        <v>0.12409</v>
+        <v>0.12356</v>
       </c>
       <c r="D3">
-        <v>0.1154</v>
+        <v>0.11551</v>
       </c>
       <c r="E3">
-        <v>0.29832</v>
+        <v>0.297</v>
       </c>
       <c r="F3">
-        <v>0.12346</v>
+        <v>0.12253</v>
       </c>
       <c r="G3">
         <v>0.03845</v>
       </c>
       <c r="H3">
-        <v>0.07018000000000001</v>
+        <v>0.07031</v>
       </c>
       <c r="I3">
-        <v>0.02774</v>
+        <v>0.0276</v>
       </c>
       <c r="J3">
-        <v>0.07793</v>
+        <v>0.0781</v>
       </c>
       <c r="K3">
-        <v>0.11488</v>
+        <v>0.11515</v>
       </c>
       <c r="L3">
-        <v>0.28447</v>
+        <v>0.2851</v>
       </c>
       <c r="M3">
-        <v>0.0636</v>
+        <v>0.06358999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1797,40 +1794,40 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.03912</v>
+        <v>0.039</v>
       </c>
       <c r="C4">
-        <v>0.03248</v>
+        <v>0.0324</v>
       </c>
       <c r="D4">
-        <v>0.04959</v>
+        <v>0.0494</v>
       </c>
       <c r="E4">
-        <v>0.0126</v>
+        <v>0.01256</v>
       </c>
       <c r="F4">
-        <v>0.05876</v>
+        <v>0.0587</v>
       </c>
       <c r="G4">
-        <v>0.01305</v>
+        <v>0.01297</v>
       </c>
       <c r="H4">
-        <v>0.03074</v>
+        <v>0.03065</v>
       </c>
       <c r="I4">
-        <v>0.01559</v>
+        <v>0.01562</v>
       </c>
       <c r="J4">
-        <v>0.12808</v>
+        <v>0.12738</v>
       </c>
       <c r="K4">
-        <v>0.02242</v>
+        <v>0.02234</v>
       </c>
       <c r="L4">
-        <v>0.10108</v>
+        <v>0.10095</v>
       </c>
       <c r="M4">
-        <v>0.04574</v>
+        <v>0.04544</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1838,28 +1835,28 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.03512</v>
+        <v>0.03518</v>
       </c>
       <c r="C5">
-        <v>0.03384</v>
+        <v>0.0339</v>
       </c>
       <c r="D5">
-        <v>0.03713</v>
+        <v>0.03719</v>
       </c>
       <c r="E5">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F5">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G5">
-        <v>0.15166</v>
+        <v>0.15214</v>
       </c>
       <c r="H5">
-        <v>0.00313</v>
+        <v>0.00311</v>
       </c>
       <c r="I5">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1868,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M5">
         <v>4E-05</v>
@@ -1879,40 +1876,40 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.01272</v>
+        <v>0.01269</v>
       </c>
       <c r="C6">
-        <v>0.01655</v>
+        <v>0.01656</v>
       </c>
       <c r="D6">
-        <v>0.00669</v>
+        <v>0.00659</v>
       </c>
       <c r="E6">
-        <v>0.00342</v>
+        <v>0.00341</v>
       </c>
       <c r="F6">
-        <v>0.03898</v>
+        <v>0.03909</v>
       </c>
       <c r="G6">
-        <v>0.01212</v>
+        <v>0.0121</v>
       </c>
       <c r="H6">
-        <v>0.00687</v>
+        <v>0.00684</v>
       </c>
       <c r="I6">
-        <v>0.01417</v>
+        <v>0.01386</v>
       </c>
       <c r="J6">
-        <v>0.0027</v>
+        <v>0.00264</v>
       </c>
       <c r="K6">
-        <v>0.00462</v>
+        <v>0.00459</v>
       </c>
       <c r="L6">
         <v>0.00407</v>
       </c>
       <c r="M6">
-        <v>0.00302</v>
+        <v>0.00303</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1920,10 +1917,10 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>0.00267</v>
+        <v>0.00266</v>
       </c>
       <c r="C7">
-        <v>0.00432</v>
+        <v>0.00431</v>
       </c>
       <c r="D7">
         <v>6E-05</v>
@@ -1938,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01197</v>
+        <v>0.01191</v>
       </c>
       <c r="I7">
         <v>4E-05</v>
@@ -1950,7 +1947,7 @@
         <v>6.999999999999999E-05</v>
       </c>
       <c r="L7">
-        <v>0.00012</v>
+        <v>0.00013</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1961,16 +1958,16 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.00118</v>
+        <v>0.00119</v>
       </c>
       <c r="C8">
-        <v>0.00182</v>
+        <v>0.00183</v>
       </c>
       <c r="D8">
         <v>0.00017</v>
       </c>
       <c r="E8">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F8">
         <v>0.00052</v>
@@ -1979,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00475</v>
+        <v>0.00474</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M8">
         <v>0.00044</v>
@@ -2008,7 +2005,7 @@
         <v>0.00024</v>
       </c>
       <c r="D9">
-        <v>0.00137</v>
+        <v>0.00136</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2020,7 +2017,7 @@
         <v>1E-05</v>
       </c>
       <c r="H9">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2032,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.00614</v>
+        <v>0.00612</v>
       </c>
       <c r="M9">
         <v>0.00037</v>
@@ -2043,40 +2040,40 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>0.00059</v>
+        <v>0.00058</v>
       </c>
       <c r="C10">
-        <v>0.00024</v>
+        <v>0.00025</v>
       </c>
       <c r="D10">
-        <v>0.00114</v>
+        <v>0.00111</v>
       </c>
       <c r="E10">
         <v>0.00013</v>
       </c>
       <c r="F10">
-        <v>0.00027</v>
+        <v>0.00029</v>
       </c>
       <c r="G10">
-        <v>3E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="H10">
         <v>0.00037</v>
       </c>
       <c r="I10">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J10">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="K10">
         <v>0.00011</v>
       </c>
       <c r="L10">
-        <v>0.00317</v>
+        <v>0.00305</v>
       </c>
       <c r="M10">
-        <v>0.002</v>
+        <v>0.00198</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2084,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C11">
         <v>0.00037</v>
@@ -2102,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2114,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2137,7 +2134,7 @@
         <v>0.00025</v>
       </c>
       <c r="F12">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2258,40 +2255,40 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.78679</v>
+        <v>0.78717</v>
       </c>
       <c r="C2">
-        <v>0.78588</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="D2">
-        <v>0.78822</v>
+        <v>0.78838</v>
       </c>
       <c r="E2">
-        <v>0.65511</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.77278</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78467</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.87073</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.80665</v>
+        <v>0.80696</v>
       </c>
       <c r="J2">
-        <v>0.7895</v>
+        <v>0.7900700000000001</v>
       </c>
       <c r="K2">
-        <v>0.8579</v>
+        <v>0.8577399999999999</v>
       </c>
       <c r="L2">
-        <v>0.59941</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="M2">
-        <v>0.8848</v>
+        <v>0.88511</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2299,40 +2296,40 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.05407</v>
+        <v>0.05381</v>
       </c>
       <c r="C3">
-        <v>0.0508</v>
+        <v>0.05027</v>
       </c>
       <c r="D3">
-        <v>0.05923</v>
+        <v>0.05939</v>
       </c>
       <c r="E3">
-        <v>0.19062</v>
+        <v>0.18947</v>
       </c>
       <c r="F3">
-        <v>0.01478</v>
+        <v>0.01363</v>
       </c>
       <c r="G3">
         <v>0.02209</v>
       </c>
       <c r="H3">
-        <v>0.01799</v>
+        <v>0.01814</v>
       </c>
       <c r="I3">
-        <v>0.01592</v>
+        <v>0.01589</v>
       </c>
       <c r="J3">
-        <v>0.01733</v>
+        <v>0.01716</v>
       </c>
       <c r="K3">
-        <v>0.07889</v>
+        <v>0.07918</v>
       </c>
       <c r="L3">
-        <v>0.13909</v>
+        <v>0.13963</v>
       </c>
       <c r="M3">
-        <v>0.0183</v>
+        <v>0.01837</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2340,28 +2337,28 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>0.03512</v>
+        <v>0.03518</v>
       </c>
       <c r="C4">
-        <v>0.03384</v>
+        <v>0.0339</v>
       </c>
       <c r="D4">
-        <v>0.03713</v>
+        <v>0.03719</v>
       </c>
       <c r="E4">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F4">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G4">
-        <v>0.15166</v>
+        <v>0.15214</v>
       </c>
       <c r="H4">
-        <v>0.00313</v>
+        <v>0.00311</v>
       </c>
       <c r="I4">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2370,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M4">
         <v>4E-05</v>
@@ -2381,40 +2378,40 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>0.03291</v>
+        <v>0.03287</v>
       </c>
       <c r="C5">
-        <v>0.02948</v>
+        <v>0.02944</v>
       </c>
       <c r="D5">
-        <v>0.03832</v>
+        <v>0.03828</v>
       </c>
       <c r="E5">
-        <v>0.09383</v>
+        <v>0.09368</v>
       </c>
       <c r="F5">
-        <v>0.00338</v>
+        <v>0.00336</v>
       </c>
       <c r="G5">
         <v>0.01116</v>
       </c>
       <c r="H5">
-        <v>0.02509</v>
+        <v>0.02507</v>
       </c>
       <c r="I5">
-        <v>0.008070000000000001</v>
+        <v>0.007990000000000001</v>
       </c>
       <c r="J5">
-        <v>0.05735</v>
+        <v>0.0577</v>
       </c>
       <c r="K5">
-        <v>0.03056</v>
+        <v>0.03057</v>
       </c>
       <c r="L5">
-        <v>0.08019</v>
+        <v>0.08016</v>
       </c>
       <c r="M5">
-        <v>0.03785</v>
+        <v>0.03774</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2422,40 +2419,40 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>0.03216</v>
+        <v>0.03203</v>
       </c>
       <c r="C6">
-        <v>0.02519</v>
+        <v>0.02509</v>
       </c>
       <c r="D6">
-        <v>0.04315</v>
+        <v>0.04297</v>
       </c>
       <c r="E6">
-        <v>0.01016</v>
+        <v>0.0101</v>
       </c>
       <c r="F6">
-        <v>0.04672</v>
+        <v>0.04662</v>
       </c>
       <c r="G6">
-        <v>0.00834</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="H6">
-        <v>0.02355</v>
+        <v>0.02344</v>
       </c>
       <c r="I6">
-        <v>0.0091</v>
+        <v>0.00912</v>
       </c>
       <c r="J6">
-        <v>0.12504</v>
+        <v>0.12436</v>
       </c>
       <c r="K6">
-        <v>0.01876</v>
+        <v>0.01867</v>
       </c>
       <c r="L6">
-        <v>0.08925</v>
+        <v>0.08917</v>
       </c>
       <c r="M6">
-        <v>0.04022</v>
+        <v>0.03994</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2463,40 +2460,40 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>0.02752</v>
+        <v>0.02755</v>
       </c>
       <c r="C7">
-        <v>0.03631</v>
+        <v>0.03635</v>
       </c>
       <c r="D7">
-        <v>0.01367</v>
+        <v>0.01366</v>
       </c>
       <c r="E7">
         <v>0.00311</v>
       </c>
       <c r="F7">
-        <v>0.10466</v>
+        <v>0.10488</v>
       </c>
       <c r="G7">
         <v>0.00173</v>
       </c>
       <c r="H7">
-        <v>0.01353</v>
+        <v>0.01356</v>
       </c>
       <c r="I7">
-        <v>0.00137</v>
+        <v>0.00136</v>
       </c>
       <c r="J7">
-        <v>0.00174</v>
+        <v>0.00175</v>
       </c>
       <c r="K7">
-        <v>0.0038</v>
+        <v>0.00377</v>
       </c>
       <c r="L7">
-        <v>0.05355</v>
+        <v>0.0536</v>
       </c>
       <c r="M7">
-        <v>0.00451</v>
+        <v>0.00457</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2504,40 +2501,40 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>0.009950000000000001</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="C8">
-        <v>0.01432</v>
+        <v>0.01433</v>
       </c>
       <c r="D8">
-        <v>0.00307</v>
+        <v>0.00302</v>
       </c>
       <c r="E8">
-        <v>0.00075</v>
+        <v>0.00072</v>
       </c>
       <c r="F8">
-        <v>0.03762</v>
+        <v>0.03773</v>
       </c>
       <c r="G8">
-        <v>0.00509</v>
+        <v>0.0051</v>
       </c>
       <c r="H8">
-        <v>0.00655</v>
+        <v>0.00652</v>
       </c>
       <c r="I8">
-        <v>0.00587</v>
+        <v>0.00573</v>
       </c>
       <c r="J8">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="K8">
-        <v>0.0037</v>
+        <v>0.00367</v>
       </c>
       <c r="L8">
         <v>0.0008</v>
       </c>
       <c r="M8">
-        <v>0.00143</v>
+        <v>0.00144</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2545,31 +2542,31 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.00346</v>
+        <v>0.00347</v>
       </c>
       <c r="C9">
-        <v>0.00326</v>
+        <v>0.00328</v>
       </c>
       <c r="D9">
         <v>0.00378</v>
       </c>
       <c r="E9">
-        <v>0.00179</v>
+        <v>0.00181</v>
       </c>
       <c r="F9">
-        <v>0.00429</v>
+        <v>0.00431</v>
       </c>
       <c r="G9">
-        <v>0.00408</v>
+        <v>0.00411</v>
       </c>
       <c r="H9">
-        <v>0.00277</v>
+        <v>0.0028</v>
       </c>
       <c r="I9">
-        <v>0.00581</v>
+        <v>0.00582</v>
       </c>
       <c r="J9">
-        <v>0.0013</v>
+        <v>0.00132</v>
       </c>
       <c r="K9">
         <v>0.00144</v>
@@ -2578,7 +2575,7 @@
         <v>0.00618</v>
       </c>
       <c r="M9">
-        <v>0.00231</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2589,37 +2586,37 @@
         <v>0.00299</v>
       </c>
       <c r="C10">
-        <v>0.00362</v>
+        <v>0.00363</v>
       </c>
       <c r="D10">
-        <v>0.00198</v>
+        <v>0.00197</v>
       </c>
       <c r="E10">
         <v>0.00066</v>
       </c>
       <c r="F10">
-        <v>0.0064</v>
+        <v>0.00644</v>
       </c>
       <c r="G10">
         <v>0.00063</v>
       </c>
       <c r="H10">
-        <v>0.00439</v>
+        <v>0.00438</v>
       </c>
       <c r="I10">
         <v>0.00068</v>
       </c>
       <c r="J10">
-        <v>0.00133</v>
+        <v>0.00129</v>
       </c>
       <c r="K10">
-        <v>0.00124</v>
+        <v>0.00123</v>
       </c>
       <c r="L10">
-        <v>0.00517</v>
+        <v>0.00514</v>
       </c>
       <c r="M10">
-        <v>0.00155</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2630,37 +2627,37 @@
         <v>0.00284</v>
       </c>
       <c r="C11">
-        <v>0.0044</v>
+        <v>0.00439</v>
       </c>
       <c r="D11">
         <v>0.00039</v>
       </c>
       <c r="E11">
-        <v>0.0057</v>
+        <v>0.00568</v>
       </c>
       <c r="F11">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00963</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.00038</v>
+        <v>0.00039</v>
       </c>
       <c r="M11">
-        <v>0.00155</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2668,40 +2665,40 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>0.00264</v>
+        <v>0.00263</v>
       </c>
       <c r="C12">
-        <v>0.0021</v>
+        <v>0.0043</v>
       </c>
       <c r="D12">
-        <v>0.00348</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.00247</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00113</v>
+        <v>0.00069</v>
       </c>
       <c r="G12">
-        <v>0.00701</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.00027</v>
+        <v>0.01191</v>
       </c>
       <c r="I12">
-        <v>0.0083</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.00179</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.0006400000000000001</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.00145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2709,40 +2706,40 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>0.00264</v>
+        <v>0.00261</v>
       </c>
       <c r="C13">
-        <v>0.00431</v>
+        <v>0.0021</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.00343</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.00248</v>
       </c>
       <c r="F13">
-        <v>0.00069</v>
+        <v>0.00113</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.00698</v>
       </c>
       <c r="H13">
-        <v>0.01197</v>
+        <v>0.00027</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00812</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.00173</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.00063</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.00311</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.00144</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2759,31 +2756,31 @@
         <v>0.00261</v>
       </c>
       <c r="E14">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="H14">
         <v>0.00028</v>
       </c>
       <c r="I14">
-        <v>0.00201</v>
+        <v>0.00198</v>
       </c>
       <c r="J14">
-        <v>0.00051</v>
+        <v>0.00053</v>
       </c>
       <c r="K14">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="L14">
-        <v>0.008449999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M14">
-        <v>0.00067</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2791,16 +2788,16 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>0.00118</v>
+        <v>0.00119</v>
       </c>
       <c r="C15">
-        <v>0.00182</v>
+        <v>0.00183</v>
       </c>
       <c r="D15">
         <v>0.00017</v>
       </c>
       <c r="E15">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F15">
         <v>0.00052</v>
@@ -2809,19 +2806,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.00475</v>
+        <v>0.00474</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M15">
         <v>0.00044</v>
@@ -2835,13 +2832,13 @@
         <v>0.0009700000000000001</v>
       </c>
       <c r="C16">
-        <v>0.00146</v>
+        <v>0.00147</v>
       </c>
       <c r="D16">
-        <v>0.0002</v>
+        <v>0.00019</v>
       </c>
       <c r="E16">
-        <v>0.00233</v>
+        <v>0.00235</v>
       </c>
       <c r="F16">
         <v>0.00022</v>
@@ -2850,22 +2847,22 @@
         <v>4E-05</v>
       </c>
       <c r="H16">
-        <v>0.00274</v>
+        <v>0.00276</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.00049</v>
+        <v>0.00047</v>
       </c>
       <c r="K16">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="L16">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
       <c r="M16">
-        <v>0.00032</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2903,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.00614</v>
+        <v>0.00612</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2917,22 +2914,22 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="C18">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="D18">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="E18">
-        <v>0.00179</v>
+        <v>0.0018</v>
       </c>
       <c r="F18">
         <v>0.00016</v>
       </c>
       <c r="G18">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="H18">
-        <v>0.00062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="I18">
         <v>0.00023</v>
@@ -2941,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.00112</v>
+        <v>0.00113</v>
       </c>
       <c r="L18">
-        <v>0.00062</v>
+        <v>0.00061</v>
       </c>
       <c r="M18">
-        <v>0.00031</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2955,40 +2952,40 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>0.00059</v>
+        <v>0.00058</v>
       </c>
       <c r="C19">
-        <v>0.00024</v>
+        <v>0.00025</v>
       </c>
       <c r="D19">
-        <v>0.00114</v>
+        <v>0.00111</v>
       </c>
       <c r="E19">
         <v>0.00013</v>
       </c>
       <c r="F19">
-        <v>0.00027</v>
+        <v>0.00029</v>
       </c>
       <c r="G19">
-        <v>3E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="H19">
         <v>0.00037</v>
       </c>
       <c r="I19">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J19">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="K19">
         <v>0.00011</v>
       </c>
       <c r="L19">
-        <v>0.00317</v>
+        <v>0.00305</v>
       </c>
       <c r="M19">
-        <v>0.002</v>
+        <v>0.00198</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2996,7 +2993,7 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C20">
         <v>0.00037</v>
@@ -3014,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3026,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3108,10 +3105,10 @@
         <v>0.00027</v>
       </c>
       <c r="L22">
-        <v>0.00049</v>
+        <v>0.00047</v>
       </c>
       <c r="M22">
-        <v>0.00166</v>
+        <v>0.00164</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3134,10 +3131,10 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="G23">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="H23">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="I23">
         <v>0.00014</v>
@@ -3152,7 +3149,7 @@
         <v>0.00026</v>
       </c>
       <c r="M23">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3166,13 +3163,13 @@
         <v>4E-05</v>
       </c>
       <c r="D24">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.00012</v>
+        <v>0.00013</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3190,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0013</v>
+        <v>0.00129</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3213,7 +3210,7 @@
         <v>0.00025</v>
       </c>
       <c r="F25">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3248,13 +3245,13 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D26">
-        <v>0.00013</v>
+        <v>0.00014</v>
       </c>
       <c r="E26">
         <v>0.0001</v>
       </c>
       <c r="F26">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="G26">
         <v>2E-05</v>
@@ -3269,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="L26">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M26">
-        <v>0.00014</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3310,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3395,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3559,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>6.999999999999999E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3744,40 +3741,40 @@
         <v>69</v>
       </c>
       <c r="B2">
-        <v>0.44954</v>
+        <v>0.45068</v>
       </c>
       <c r="C2">
-        <v>0.43549</v>
+        <v>0.43669</v>
       </c>
       <c r="D2">
-        <v>0.47169</v>
+        <v>0.47275</v>
       </c>
       <c r="E2">
-        <v>0.41264</v>
+        <v>0.41419</v>
       </c>
       <c r="F2">
-        <v>0.28157</v>
+        <v>0.28281</v>
       </c>
       <c r="G2">
-        <v>0.47754</v>
+        <v>0.47786</v>
       </c>
       <c r="H2">
-        <v>0.55918</v>
+        <v>0.5602200000000001</v>
       </c>
       <c r="I2">
-        <v>0.49685</v>
+        <v>0.49775</v>
       </c>
       <c r="J2">
-        <v>0.43594</v>
+        <v>0.43738</v>
       </c>
       <c r="K2">
-        <v>0.39541</v>
+        <v>0.39689</v>
       </c>
       <c r="L2">
-        <v>0.52862</v>
+        <v>0.52839</v>
       </c>
       <c r="M2">
-        <v>0.49493</v>
+        <v>0.49711</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3785,40 +3782,40 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>0.17851</v>
+        <v>0.17801</v>
       </c>
       <c r="C3">
-        <v>0.17339</v>
+        <v>0.17304</v>
       </c>
       <c r="D3">
-        <v>0.18657</v>
+        <v>0.18584</v>
       </c>
       <c r="E3">
-        <v>0.11412</v>
+        <v>0.114</v>
       </c>
       <c r="F3">
-        <v>0.38876</v>
+        <v>0.38831</v>
       </c>
       <c r="G3">
-        <v>0.06708</v>
+        <v>0.06686</v>
       </c>
       <c r="H3">
-        <v>0.07499</v>
+        <v>0.07488</v>
       </c>
       <c r="I3">
-        <v>0.07056</v>
+        <v>0.07038</v>
       </c>
       <c r="J3">
-        <v>0.24006</v>
+        <v>0.23985</v>
       </c>
       <c r="K3">
-        <v>0.34205</v>
+        <v>0.34046</v>
       </c>
       <c r="L3">
-        <v>0.03763</v>
+        <v>0.03754</v>
       </c>
       <c r="M3">
-        <v>0.29173</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3826,40 +3823,40 @@
         <v>71</v>
       </c>
       <c r="B4">
-        <v>0.12059</v>
+        <v>0.12031</v>
       </c>
       <c r="C4">
-        <v>0.12652</v>
+        <v>0.12618</v>
       </c>
       <c r="D4">
-        <v>0.11124</v>
+        <v>0.11104</v>
       </c>
       <c r="E4">
-        <v>0.09574000000000001</v>
+        <v>0.09555</v>
       </c>
       <c r="F4">
-        <v>0.00468</v>
+        <v>0.00466</v>
       </c>
       <c r="G4">
-        <v>0.21728</v>
+        <v>0.21665</v>
       </c>
       <c r="H4">
-        <v>0.20277</v>
+        <v>0.20199</v>
       </c>
       <c r="I4">
-        <v>0.21409</v>
+        <v>0.21362</v>
       </c>
       <c r="J4">
-        <v>0.10855</v>
+        <v>0.10791</v>
       </c>
       <c r="K4">
-        <v>0.08115</v>
+        <v>0.08109</v>
       </c>
       <c r="L4">
-        <v>0.03104</v>
+        <v>0.03105</v>
       </c>
       <c r="M4">
-        <v>0.09443</v>
+        <v>0.09415999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3867,40 +3864,40 @@
         <v>72</v>
       </c>
       <c r="B5">
-        <v>0.05399</v>
+        <v>0.05373</v>
       </c>
       <c r="C5">
-        <v>0.05074</v>
+        <v>0.05021</v>
       </c>
       <c r="D5">
-        <v>0.05912</v>
+        <v>0.05927</v>
       </c>
       <c r="E5">
-        <v>0.19062</v>
+        <v>0.18947</v>
       </c>
       <c r="F5">
-        <v>0.01473</v>
+        <v>0.01358</v>
       </c>
       <c r="G5">
         <v>0.02209</v>
       </c>
       <c r="H5">
-        <v>0.01785</v>
+        <v>0.018</v>
       </c>
       <c r="I5">
-        <v>0.01592</v>
+        <v>0.01589</v>
       </c>
       <c r="J5">
-        <v>0.01682</v>
+        <v>0.01664</v>
       </c>
       <c r="K5">
-        <v>0.07889</v>
+        <v>0.07918</v>
       </c>
       <c r="L5">
-        <v>0.13904</v>
+        <v>0.13959</v>
       </c>
       <c r="M5">
-        <v>0.01791</v>
+        <v>0.01799</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3908,28 +3905,28 @@
         <v>73</v>
       </c>
       <c r="B6">
-        <v>0.03512</v>
+        <v>0.03518</v>
       </c>
       <c r="C6">
-        <v>0.03384</v>
+        <v>0.0339</v>
       </c>
       <c r="D6">
-        <v>0.03713</v>
+        <v>0.03719</v>
       </c>
       <c r="E6">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F6">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G6">
-        <v>0.15166</v>
+        <v>0.15214</v>
       </c>
       <c r="H6">
-        <v>0.00313</v>
+        <v>0.00311</v>
       </c>
       <c r="I6">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3938,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M6">
         <v>4E-05</v>
@@ -3949,40 +3946,40 @@
         <v>74</v>
       </c>
       <c r="B7">
-        <v>0.03125</v>
+        <v>0.03112</v>
       </c>
       <c r="C7">
-        <v>0.02451</v>
+        <v>0.02442</v>
       </c>
       <c r="D7">
-        <v>0.04186</v>
+        <v>0.04169</v>
       </c>
       <c r="E7">
-        <v>0.00974</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="F7">
-        <v>0.04537</v>
+        <v>0.04528</v>
       </c>
       <c r="G7">
-        <v>0.00735</v>
+        <v>0.00725</v>
       </c>
       <c r="H7">
-        <v>0.02347</v>
+        <v>0.02336</v>
       </c>
       <c r="I7">
-        <v>0.008449999999999999</v>
+        <v>0.00847</v>
       </c>
       <c r="J7">
-        <v>0.12288</v>
+        <v>0.12222</v>
       </c>
       <c r="K7">
-        <v>0.01829</v>
+        <v>0.01822</v>
       </c>
       <c r="L7">
-        <v>0.08740000000000001</v>
+        <v>0.08729000000000001</v>
       </c>
       <c r="M7">
-        <v>0.03773</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3990,40 +3987,40 @@
         <v>75</v>
       </c>
       <c r="B8">
-        <v>0.02713</v>
+        <v>0.02716</v>
       </c>
       <c r="C8">
-        <v>0.03589</v>
+        <v>0.03594</v>
       </c>
       <c r="D8">
-        <v>0.01333</v>
+        <v>0.01332</v>
       </c>
       <c r="E8">
         <v>0.00249</v>
       </c>
       <c r="F8">
-        <v>0.10466</v>
+        <v>0.10488</v>
       </c>
       <c r="G8">
-        <v>0.00128</v>
+        <v>0.00127</v>
       </c>
       <c r="H8">
-        <v>0.01289</v>
+        <v>0.01293</v>
       </c>
       <c r="I8">
-        <v>0.00112</v>
+        <v>0.00111</v>
       </c>
       <c r="J8">
-        <v>0.00174</v>
+        <v>0.00175</v>
       </c>
       <c r="K8">
-        <v>0.00321</v>
+        <v>0.00315</v>
       </c>
       <c r="L8">
-        <v>0.05311</v>
+        <v>0.05317</v>
       </c>
       <c r="M8">
-        <v>0.00438</v>
+        <v>0.00443</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4031,40 +4028,40 @@
         <v>76</v>
       </c>
       <c r="B9">
-        <v>0.02397</v>
+        <v>0.024</v>
       </c>
       <c r="C9">
-        <v>0.02964</v>
+        <v>0.02967</v>
       </c>
       <c r="D9">
-        <v>0.01504</v>
+        <v>0.01507</v>
       </c>
       <c r="E9">
-        <v>0.00658</v>
+        <v>0.00661</v>
       </c>
       <c r="F9">
-        <v>0.07374</v>
+        <v>0.07385</v>
       </c>
       <c r="G9">
-        <v>0.02276</v>
+        <v>0.02287</v>
       </c>
       <c r="H9">
-        <v>0.00813</v>
+        <v>0.00814</v>
       </c>
       <c r="I9">
-        <v>0.02516</v>
+        <v>0.0252</v>
       </c>
       <c r="J9">
-        <v>0.00203</v>
+        <v>0.00201</v>
       </c>
       <c r="K9">
-        <v>0.02752</v>
+        <v>0.02755</v>
       </c>
       <c r="L9">
-        <v>0.00167</v>
+        <v>0.00166</v>
       </c>
       <c r="M9">
-        <v>0.0023</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4072,40 +4069,40 @@
         <v>77</v>
       </c>
       <c r="B10">
-        <v>0.01713</v>
+        <v>0.01711</v>
       </c>
       <c r="C10">
-        <v>0.01529</v>
+        <v>0.01527</v>
       </c>
       <c r="D10">
         <v>0.02002</v>
       </c>
       <c r="E10">
-        <v>0.05772</v>
+        <v>0.05766</v>
       </c>
       <c r="F10">
-        <v>0.0028</v>
+        <v>0.00279</v>
       </c>
       <c r="G10">
-        <v>0.008460000000000001</v>
+        <v>0.008449999999999999</v>
       </c>
       <c r="H10">
-        <v>0.00573</v>
+        <v>0.00574</v>
       </c>
       <c r="I10">
         <v>0.00614</v>
       </c>
       <c r="J10">
-        <v>0.00979</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="K10">
-        <v>0.0277</v>
+        <v>0.02771</v>
       </c>
       <c r="L10">
-        <v>0.04364</v>
+        <v>0.04366</v>
       </c>
       <c r="M10">
-        <v>0.00572</v>
+        <v>0.00575</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4113,16 +4110,16 @@
         <v>78</v>
       </c>
       <c r="B11">
-        <v>0.01418</v>
+        <v>0.01417</v>
       </c>
       <c r="C11">
-        <v>0.02085</v>
+        <v>0.02083</v>
       </c>
       <c r="D11">
-        <v>0.00368</v>
+        <v>0.00367</v>
       </c>
       <c r="E11">
-        <v>0.02603</v>
+        <v>0.02604</v>
       </c>
       <c r="F11">
         <v>0.02404</v>
@@ -4131,22 +4128,22 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02566</v>
+        <v>0.02557</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.00291</v>
+        <v>0.00292</v>
       </c>
       <c r="K11">
-        <v>0.01177</v>
+        <v>0.01175</v>
       </c>
       <c r="L11">
-        <v>0.00045</v>
+        <v>0.00044</v>
       </c>
       <c r="M11">
-        <v>0.00141</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4157,31 +4154,31 @@
         <v>0.00975</v>
       </c>
       <c r="C12">
-        <v>0.01413</v>
+        <v>0.01414</v>
       </c>
       <c r="D12">
-        <v>0.00284</v>
+        <v>0.00283</v>
       </c>
       <c r="E12">
-        <v>0.00063</v>
+        <v>0.00062</v>
       </c>
       <c r="F12">
-        <v>0.03723</v>
+        <v>0.03735</v>
       </c>
       <c r="G12">
-        <v>0.00495</v>
+        <v>0.00497</v>
       </c>
       <c r="H12">
-        <v>0.00645</v>
+        <v>0.00642</v>
       </c>
       <c r="I12">
         <v>0.0057</v>
       </c>
       <c r="J12">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="K12">
-        <v>0.00351</v>
+        <v>0.00348</v>
       </c>
       <c r="L12">
         <v>0.00026</v>
@@ -4198,10 +4195,10 @@
         <v>0.00817</v>
       </c>
       <c r="C13">
-        <v>0.00555</v>
+        <v>0.00556</v>
       </c>
       <c r="D13">
-        <v>0.0123</v>
+        <v>0.01229</v>
       </c>
       <c r="E13">
         <v>0.0134</v>
@@ -4210,25 +4207,25 @@
         <v>0.00013</v>
       </c>
       <c r="G13">
-        <v>0.0027</v>
+        <v>0.00271</v>
       </c>
       <c r="H13">
-        <v>0.00724</v>
+        <v>0.00727</v>
       </c>
       <c r="I13">
-        <v>0.00192</v>
+        <v>0.00184</v>
       </c>
       <c r="J13">
-        <v>0.02759</v>
+        <v>0.02782</v>
       </c>
       <c r="K13">
         <v>0.00227</v>
       </c>
       <c r="L13">
-        <v>0.0192</v>
+        <v>0.01924</v>
       </c>
       <c r="M13">
-        <v>0.0287</v>
+        <v>0.02863</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4236,19 +4233,19 @@
         <v>81</v>
       </c>
       <c r="B14">
-        <v>0.00634</v>
+        <v>0.00632</v>
       </c>
       <c r="C14">
-        <v>0.00686</v>
+        <v>0.00685</v>
       </c>
       <c r="D14">
-        <v>0.00552</v>
+        <v>0.00549</v>
       </c>
       <c r="E14">
-        <v>0.02105</v>
+        <v>0.02098</v>
       </c>
       <c r="F14">
-        <v>0.00046</v>
+        <v>0.00045</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4260,16 +4257,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01958</v>
+        <v>0.01963</v>
       </c>
       <c r="K14">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="L14">
-        <v>0.0164</v>
+        <v>0.0163</v>
       </c>
       <c r="M14">
-        <v>0.0028</v>
+        <v>0.00276</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4277,31 +4274,31 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>0.00346</v>
+        <v>0.00347</v>
       </c>
       <c r="C15">
-        <v>0.00326</v>
+        <v>0.00328</v>
       </c>
       <c r="D15">
         <v>0.00378</v>
       </c>
       <c r="E15">
-        <v>0.00179</v>
+        <v>0.00181</v>
       </c>
       <c r="F15">
-        <v>0.00429</v>
+        <v>0.00431</v>
       </c>
       <c r="G15">
-        <v>0.00408</v>
+        <v>0.00411</v>
       </c>
       <c r="H15">
-        <v>0.00277</v>
+        <v>0.0028</v>
       </c>
       <c r="I15">
-        <v>0.00581</v>
+        <v>0.00582</v>
       </c>
       <c r="J15">
-        <v>0.0013</v>
+        <v>0.00132</v>
       </c>
       <c r="K15">
         <v>0.00144</v>
@@ -4310,7 +4307,7 @@
         <v>0.00618</v>
       </c>
       <c r="M15">
-        <v>0.00231</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4321,7 +4318,7 @@
         <v>0.00289</v>
       </c>
       <c r="C16">
-        <v>0.00436</v>
+        <v>0.00435</v>
       </c>
       <c r="D16">
         <v>0.00059</v>
@@ -4336,19 +4333,19 @@
         <v>3E-05</v>
       </c>
       <c r="H16">
-        <v>0.01197</v>
+        <v>0.01191</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.00054</v>
+        <v>0.00056</v>
       </c>
       <c r="K16">
         <v>5E-05</v>
       </c>
       <c r="L16">
-        <v>0.0023</v>
+        <v>0.00229</v>
       </c>
       <c r="M16">
         <v>0.00025</v>
@@ -4362,37 +4359,37 @@
         <v>0.00284</v>
       </c>
       <c r="C17">
-        <v>0.0044</v>
+        <v>0.00439</v>
       </c>
       <c r="D17">
         <v>0.00039</v>
       </c>
       <c r="E17">
-        <v>0.0057</v>
+        <v>0.00568</v>
       </c>
       <c r="F17">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.00963</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.00038</v>
+        <v>0.00039</v>
       </c>
       <c r="M17">
-        <v>0.00155</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4400,40 +4397,40 @@
         <v>82</v>
       </c>
       <c r="B18">
-        <v>0.0026</v>
+        <v>0.00258</v>
       </c>
       <c r="C18">
-        <v>0.00207</v>
+        <v>0.00206</v>
       </c>
       <c r="D18">
-        <v>0.00345</v>
+        <v>0.0034</v>
       </c>
       <c r="E18">
-        <v>0.00247</v>
+        <v>0.00248</v>
       </c>
       <c r="F18">
         <v>0.00113</v>
       </c>
       <c r="G18">
-        <v>0.0068</v>
+        <v>0.00677</v>
       </c>
       <c r="H18">
         <v>0.00027</v>
       </c>
       <c r="I18">
-        <v>0.008189999999999999</v>
+        <v>0.00801</v>
       </c>
       <c r="J18">
-        <v>0.00179</v>
+        <v>0.00173</v>
       </c>
       <c r="K18">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="L18">
-        <v>0.0031</v>
+        <v>0.00311</v>
       </c>
       <c r="M18">
-        <v>0.00145</v>
+        <v>0.00144</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4444,19 +4441,19 @@
         <v>0.00249</v>
       </c>
       <c r="C19">
-        <v>0.00294</v>
+        <v>0.00295</v>
       </c>
       <c r="D19">
-        <v>0.00177</v>
+        <v>0.00176</v>
       </c>
       <c r="E19">
         <v>5E-05</v>
       </c>
       <c r="F19">
-        <v>0.00528</v>
+        <v>0.00532</v>
       </c>
       <c r="G19">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="H19">
         <v>0.00381</v>
@@ -4465,16 +4462,16 @@
         <v>0.00054</v>
       </c>
       <c r="J19">
-        <v>0.00126</v>
+        <v>0.00129</v>
       </c>
       <c r="K19">
-        <v>0.0009</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="L19">
-        <v>0.00503</v>
+        <v>0.005</v>
       </c>
       <c r="M19">
-        <v>0.00126</v>
+        <v>0.00128</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4491,31 +4488,31 @@
         <v>0.00261</v>
       </c>
       <c r="E20">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="H20">
         <v>0.00028</v>
       </c>
       <c r="I20">
-        <v>0.00201</v>
+        <v>0.00198</v>
       </c>
       <c r="J20">
-        <v>0.00051</v>
+        <v>0.00053</v>
       </c>
       <c r="K20">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="L20">
-        <v>0.008449999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M20">
-        <v>0.00067</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4523,16 +4520,16 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <v>0.00118</v>
+        <v>0.00119</v>
       </c>
       <c r="C21">
-        <v>0.00182</v>
+        <v>0.00183</v>
       </c>
       <c r="D21">
         <v>0.00017</v>
       </c>
       <c r="E21">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F21">
         <v>0.00052</v>
@@ -4541,19 +4538,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.00475</v>
+        <v>0.00474</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M21">
         <v>0.00044</v>
@@ -4567,13 +4564,13 @@
         <v>0.0009700000000000001</v>
       </c>
       <c r="C22">
-        <v>0.00146</v>
+        <v>0.00147</v>
       </c>
       <c r="D22">
-        <v>0.0002</v>
+        <v>0.00019</v>
       </c>
       <c r="E22">
-        <v>0.00233</v>
+        <v>0.00235</v>
       </c>
       <c r="F22">
         <v>0.00022</v>
@@ -4582,22 +4579,22 @@
         <v>4E-05</v>
       </c>
       <c r="H22">
-        <v>0.00274</v>
+        <v>0.00276</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.00049</v>
+        <v>0.00047</v>
       </c>
       <c r="K22">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="L22">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
       <c r="M22">
-        <v>0.00032</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -4605,10 +4602,10 @@
         <v>85</v>
       </c>
       <c r="B23">
-        <v>0.00094</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="C23">
-        <v>0.00143</v>
+        <v>0.00142</v>
       </c>
       <c r="D23">
         <v>0.00017</v>
@@ -4623,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.00418</v>
+        <v>0.00413</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4635,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.00041</v>
+        <v>0.00042</v>
       </c>
       <c r="M23">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4646,22 +4643,22 @@
         <v>86</v>
       </c>
       <c r="B24">
-        <v>0.00082</v>
+        <v>0.00081</v>
       </c>
       <c r="C24">
-        <v>0.00059</v>
+        <v>0.00058</v>
       </c>
       <c r="D24">
         <v>0.00117</v>
       </c>
       <c r="E24">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="F24">
-        <v>0.00136</v>
+        <v>0.00134</v>
       </c>
       <c r="G24">
-        <v>0.00052</v>
+        <v>0.00053</v>
       </c>
       <c r="H24">
         <v>5E-05</v>
@@ -4670,16 +4667,16 @@
         <v>0.00041</v>
       </c>
       <c r="J24">
-        <v>0.00216</v>
+        <v>0.00213</v>
       </c>
       <c r="K24">
-        <v>0.00038</v>
+        <v>0.00036</v>
       </c>
       <c r="L24">
-        <v>0.00185</v>
+        <v>0.00188</v>
       </c>
       <c r="M24">
-        <v>0.00232</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4705,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4717,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.00614</v>
+        <v>0.00612</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4731,22 +4728,22 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="C26">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="D26">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="E26">
-        <v>0.00179</v>
+        <v>0.0018</v>
       </c>
       <c r="F26">
         <v>0.00016</v>
       </c>
       <c r="G26">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="H26">
-        <v>0.00062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="I26">
         <v>0.00023</v>
@@ -4755,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.00112</v>
+        <v>0.00113</v>
       </c>
       <c r="L26">
-        <v>0.00062</v>
+        <v>0.00061</v>
       </c>
       <c r="M26">
-        <v>0.00031</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4778,7 +4775,7 @@
         <v>0.00021</v>
       </c>
       <c r="E27">
-        <v>0.0005999999999999999</v>
+        <v>0.00061</v>
       </c>
       <c r="F27">
         <v>0.00112</v>
@@ -4787,16 +4784,16 @@
         <v>0.00022</v>
       </c>
       <c r="H27">
-        <v>0.00058</v>
+        <v>0.00057</v>
       </c>
       <c r="I27">
         <v>0.00014</v>
       </c>
       <c r="J27">
-        <v>6.999999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
       <c r="L27">
         <v>0.00014</v>
@@ -4813,10 +4810,10 @@
         <v>0.00039</v>
       </c>
       <c r="C28">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="D28">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
       <c r="E28">
         <v>0.00062</v>
@@ -4828,19 +4825,19 @@
         <v>0.00045</v>
       </c>
       <c r="H28">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="I28">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.00059</v>
+        <v>0.00061</v>
       </c>
       <c r="L28">
-        <v>0.00044</v>
+        <v>0.00043</v>
       </c>
       <c r="M28">
         <v>0.00014</v>
@@ -4860,7 +4857,7 @@
         <v>0.00031</v>
       </c>
       <c r="E29">
-        <v>0.00159</v>
+        <v>0.00157</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4881,10 +4878,10 @@
         <v>0.00053</v>
       </c>
       <c r="L29">
-        <v>0.00053</v>
+        <v>0.00054</v>
       </c>
       <c r="M29">
-        <v>0.00035</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4892,7 +4889,7 @@
         <v>92</v>
       </c>
       <c r="B30">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C30">
         <v>0.00037</v>
@@ -4910,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4922,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4933,13 +4930,13 @@
         <v>93</v>
       </c>
       <c r="B31">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="C31">
         <v>5E-05</v>
       </c>
       <c r="D31">
-        <v>0.00068</v>
+        <v>0.00067</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4957,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.00046</v>
+        <v>0.00043</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -4966,7 +4963,7 @@
         <v>0.0016</v>
       </c>
       <c r="M31">
-        <v>0.00175</v>
+        <v>0.00173</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -5018,37 +5015,37 @@
         <v>0.00019</v>
       </c>
       <c r="C33">
-        <v>0.00019</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0.0002</v>
+        <v>0.00049</v>
       </c>
       <c r="E33">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.00038</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="K33">
-        <v>0.00011</v>
+        <v>0.00027</v>
       </c>
       <c r="L33">
-        <v>0.00053</v>
+        <v>0.00047</v>
       </c>
       <c r="M33">
-        <v>0.00013</v>
+        <v>0.00164</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -5056,40 +5053,40 @@
         <v>96</v>
       </c>
       <c r="B34">
+        <v>0.00018</v>
+      </c>
+      <c r="C34">
         <v>0.00019</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
       <c r="D34">
-        <v>0.00049</v>
+        <v>0.00017</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.00038</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.00041</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0.00027</v>
+        <v>0.00011</v>
       </c>
       <c r="L34">
-        <v>0.00049</v>
+        <v>0.00054</v>
       </c>
       <c r="M34">
-        <v>0.00166</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -5097,28 +5094,28 @@
         <v>97</v>
       </c>
       <c r="B35">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="C35">
-        <v>0.00017</v>
+        <v>0.00019</v>
       </c>
       <c r="D35">
-        <v>0.00015</v>
+        <v>0.00013</v>
       </c>
       <c r="E35">
-        <v>9.000000000000001E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="F35">
-        <v>0.00019</v>
+        <v>0.00021</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="H35">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="I35">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5127,7 +5124,7 @@
         <v>6E-05</v>
       </c>
       <c r="L35">
-        <v>0.00058</v>
+        <v>0.00046</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5153,10 +5150,10 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="G36">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="H36">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="I36">
         <v>0.00014</v>
@@ -5171,7 +5168,7 @@
         <v>0.00026</v>
       </c>
       <c r="M36">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -5191,7 +5188,7 @@
         <v>0.00025</v>
       </c>
       <c r="F37">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5247,13 +5244,13 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="L38">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="M38">
-        <v>0.00014</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -5273,28 +5270,28 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="G39">
-        <v>0.00031</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>3E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="I39">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.00052</v>
       </c>
       <c r="K39">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="M39">
-        <v>0.00016</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -5314,28 +5311,28 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H40">
-        <v>0.00014</v>
+        <v>3E-05</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="J40">
-        <v>0.00051</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="L40">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.00039</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -5370,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5384,7 +5381,7 @@
         <v>103</v>
       </c>
       <c r="B42">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="C42">
         <v>4E-05</v>
@@ -5399,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -5496,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5604,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5660,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -5756,16 +5753,16 @@
         <v>1E-05</v>
       </c>
       <c r="C51">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5783,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>4E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5797,17 +5794,17 @@
         <v>1E-05</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D52">
+        <v>1E-05</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>2E-05</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
       <c r="G52">
         <v>0</v>
       </c>
@@ -5824,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>6.999999999999999E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -6050,40 +6047,40 @@
         <v>69</v>
       </c>
       <c r="B2">
-        <v>0.44001</v>
+        <v>0.44112</v>
       </c>
       <c r="C2">
-        <v>0.42668</v>
+        <v>0.42786</v>
       </c>
       <c r="D2">
-        <v>0.46101</v>
+        <v>0.46203</v>
       </c>
       <c r="E2">
-        <v>0.40393</v>
+        <v>0.40543</v>
       </c>
       <c r="F2">
-        <v>0.28125</v>
+        <v>0.28249</v>
       </c>
       <c r="G2">
-        <v>0.46309</v>
+        <v>0.46341</v>
       </c>
       <c r="H2">
-        <v>0.54587</v>
+        <v>0.54687</v>
       </c>
       <c r="I2">
-        <v>0.48361</v>
+        <v>0.48449</v>
       </c>
       <c r="J2">
-        <v>0.43013</v>
+        <v>0.4315</v>
       </c>
       <c r="K2">
-        <v>0.38194</v>
+        <v>0.38337</v>
       </c>
       <c r="L2">
-        <v>0.52329</v>
+        <v>0.52299</v>
       </c>
       <c r="M2">
-        <v>0.48375</v>
+        <v>0.48595</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6091,40 +6088,40 @@
         <v>118</v>
       </c>
       <c r="B3">
-        <v>0.17851</v>
+        <v>0.17801</v>
       </c>
       <c r="C3">
-        <v>0.17339</v>
+        <v>0.17304</v>
       </c>
       <c r="D3">
-        <v>0.18657</v>
+        <v>0.18584</v>
       </c>
       <c r="E3">
-        <v>0.11412</v>
+        <v>0.114</v>
       </c>
       <c r="F3">
-        <v>0.38876</v>
+        <v>0.38831</v>
       </c>
       <c r="G3">
-        <v>0.06708</v>
+        <v>0.06686</v>
       </c>
       <c r="H3">
-        <v>0.07499</v>
+        <v>0.07488</v>
       </c>
       <c r="I3">
-        <v>0.07056</v>
+        <v>0.07038</v>
       </c>
       <c r="J3">
-        <v>0.24006</v>
+        <v>0.23985</v>
       </c>
       <c r="K3">
-        <v>0.34205</v>
+        <v>0.34046</v>
       </c>
       <c r="L3">
-        <v>0.03763</v>
+        <v>0.03754</v>
       </c>
       <c r="M3">
-        <v>0.29173</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6132,40 +6129,40 @@
         <v>119</v>
       </c>
       <c r="B4">
-        <v>0.07635</v>
+        <v>0.07616000000000001</v>
       </c>
       <c r="C4">
-        <v>0.09470000000000001</v>
+        <v>0.09445000000000001</v>
       </c>
       <c r="D4">
-        <v>0.04743</v>
+        <v>0.04732</v>
       </c>
       <c r="E4">
-        <v>0.02998</v>
+        <v>0.02988</v>
       </c>
       <c r="F4">
-        <v>0.00052</v>
+        <v>0.00051</v>
       </c>
       <c r="G4">
-        <v>0.13935</v>
+        <v>0.13896</v>
       </c>
       <c r="H4">
-        <v>0.18924</v>
+        <v>0.18849</v>
       </c>
       <c r="I4">
-        <v>0.12877</v>
+        <v>0.12849</v>
       </c>
       <c r="J4">
-        <v>0.04588</v>
+        <v>0.04542</v>
       </c>
       <c r="K4">
-        <v>0.009180000000000001</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="L4">
-        <v>0.00601</v>
+        <v>0.00605</v>
       </c>
       <c r="M4">
-        <v>0.02885</v>
+        <v>0.02871</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6173,40 +6170,40 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>0.04424</v>
+        <v>0.04415</v>
       </c>
       <c r="C5">
-        <v>0.03182</v>
+        <v>0.03174</v>
       </c>
       <c r="D5">
-        <v>0.06381000000000001</v>
+        <v>0.06372</v>
       </c>
       <c r="E5">
-        <v>0.06576</v>
+        <v>0.06567000000000001</v>
       </c>
       <c r="F5">
-        <v>0.00416</v>
+        <v>0.00415</v>
       </c>
       <c r="G5">
-        <v>0.07793</v>
+        <v>0.07769</v>
       </c>
       <c r="H5">
-        <v>0.01352</v>
+        <v>0.01349</v>
       </c>
       <c r="I5">
-        <v>0.08531999999999999</v>
+        <v>0.08513</v>
       </c>
       <c r="J5">
-        <v>0.06267</v>
+        <v>0.06249</v>
       </c>
       <c r="K5">
-        <v>0.07196</v>
+        <v>0.07192</v>
       </c>
       <c r="L5">
-        <v>0.02502</v>
+        <v>0.025</v>
       </c>
       <c r="M5">
-        <v>0.06559</v>
+        <v>0.06544999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6214,28 +6211,28 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>0.03512</v>
+        <v>0.03518</v>
       </c>
       <c r="C6">
-        <v>0.03384</v>
+        <v>0.0339</v>
       </c>
       <c r="D6">
-        <v>0.03713</v>
+        <v>0.03719</v>
       </c>
       <c r="E6">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F6">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G6">
-        <v>0.15166</v>
+        <v>0.15214</v>
       </c>
       <c r="H6">
-        <v>0.00313</v>
+        <v>0.00311</v>
       </c>
       <c r="I6">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6244,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M6">
         <v>4E-05</v>
@@ -6255,40 +6252,40 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.03175</v>
+        <v>0.03162</v>
       </c>
       <c r="C7">
-        <v>0.03035</v>
+        <v>0.03008</v>
       </c>
       <c r="D7">
-        <v>0.03394</v>
+        <v>0.03406</v>
       </c>
       <c r="E7">
-        <v>0.10852</v>
+        <v>0.10738</v>
       </c>
       <c r="F7">
-        <v>0.00538</v>
+        <v>0.00523</v>
       </c>
       <c r="G7">
-        <v>0.01079</v>
+        <v>0.01081</v>
       </c>
       <c r="H7">
-        <v>0.01791</v>
+        <v>0.01788</v>
       </c>
       <c r="I7">
-        <v>0.01129</v>
+        <v>0.01125</v>
       </c>
       <c r="J7">
-        <v>0.00797</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="K7">
-        <v>0.06086</v>
+        <v>0.06104</v>
       </c>
       <c r="L7">
-        <v>0.06052</v>
+        <v>0.06087</v>
       </c>
       <c r="M7">
-        <v>0.00757</v>
+        <v>0.00764</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6296,40 +6293,40 @@
         <v>122</v>
       </c>
       <c r="B8">
-        <v>0.03125</v>
+        <v>0.03112</v>
       </c>
       <c r="C8">
-        <v>0.02451</v>
+        <v>0.02442</v>
       </c>
       <c r="D8">
-        <v>0.04186</v>
+        <v>0.04169</v>
       </c>
       <c r="E8">
-        <v>0.00974</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="F8">
-        <v>0.04537</v>
+        <v>0.04528</v>
       </c>
       <c r="G8">
-        <v>0.00735</v>
+        <v>0.00725</v>
       </c>
       <c r="H8">
-        <v>0.02347</v>
+        <v>0.02336</v>
       </c>
       <c r="I8">
-        <v>0.008449999999999999</v>
+        <v>0.00847</v>
       </c>
       <c r="J8">
-        <v>0.12288</v>
+        <v>0.12222</v>
       </c>
       <c r="K8">
-        <v>0.01829</v>
+        <v>0.01822</v>
       </c>
       <c r="L8">
-        <v>0.08740000000000001</v>
+        <v>0.08729000000000001</v>
       </c>
       <c r="M8">
-        <v>0.03773</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6337,40 +6334,40 @@
         <v>123</v>
       </c>
       <c r="B9">
-        <v>0.02428</v>
+        <v>0.0243</v>
       </c>
       <c r="C9">
-        <v>0.03123</v>
+        <v>0.03127</v>
       </c>
       <c r="D9">
-        <v>0.01333</v>
+        <v>0.01332</v>
       </c>
       <c r="E9">
         <v>0.00249</v>
       </c>
       <c r="F9">
-        <v>0.08881</v>
+        <v>0.08896999999999999</v>
       </c>
       <c r="G9">
-        <v>0.00128</v>
+        <v>0.00127</v>
       </c>
       <c r="H9">
-        <v>0.01289</v>
+        <v>0.01293</v>
       </c>
       <c r="I9">
-        <v>0.00112</v>
+        <v>0.00111</v>
       </c>
       <c r="J9">
-        <v>0.00174</v>
+        <v>0.00175</v>
       </c>
       <c r="K9">
-        <v>0.00321</v>
+        <v>0.00315</v>
       </c>
       <c r="L9">
-        <v>0.05311</v>
+        <v>0.05317</v>
       </c>
       <c r="M9">
-        <v>0.00438</v>
+        <v>0.00443</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6378,40 +6375,40 @@
         <v>124</v>
       </c>
       <c r="B10">
-        <v>0.02397</v>
+        <v>0.024</v>
       </c>
       <c r="C10">
-        <v>0.02964</v>
+        <v>0.02967</v>
       </c>
       <c r="D10">
-        <v>0.01504</v>
+        <v>0.01507</v>
       </c>
       <c r="E10">
-        <v>0.00658</v>
+        <v>0.00661</v>
       </c>
       <c r="F10">
-        <v>0.07374</v>
+        <v>0.07385</v>
       </c>
       <c r="G10">
-        <v>0.02276</v>
+        <v>0.02287</v>
       </c>
       <c r="H10">
-        <v>0.00813</v>
+        <v>0.00814</v>
       </c>
       <c r="I10">
-        <v>0.02516</v>
+        <v>0.0252</v>
       </c>
       <c r="J10">
-        <v>0.00203</v>
+        <v>0.00201</v>
       </c>
       <c r="K10">
-        <v>0.02752</v>
+        <v>0.02755</v>
       </c>
       <c r="L10">
-        <v>0.00167</v>
+        <v>0.00166</v>
       </c>
       <c r="M10">
-        <v>0.0023</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6419,40 +6416,40 @@
         <v>125</v>
       </c>
       <c r="B11">
-        <v>0.021</v>
+        <v>0.02103</v>
       </c>
       <c r="C11">
-        <v>0.01936</v>
+        <v>0.0194</v>
       </c>
       <c r="D11">
-        <v>0.02358</v>
+        <v>0.0236</v>
       </c>
       <c r="E11">
-        <v>0.0941</v>
+        <v>0.09435</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00042</v>
+        <v>0.00043</v>
       </c>
       <c r="H11">
-        <v>0.00371</v>
+        <v>0.00372</v>
       </c>
       <c r="I11">
         <v>0.00032</v>
       </c>
       <c r="J11">
-        <v>0.009520000000000001</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="K11">
-        <v>0.02861</v>
+        <v>0.0287</v>
       </c>
       <c r="L11">
-        <v>0.06237</v>
+        <v>0.06236</v>
       </c>
       <c r="M11">
-        <v>0.01127</v>
+        <v>0.01133</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6460,16 +6457,16 @@
         <v>126</v>
       </c>
       <c r="B12">
-        <v>0.01418</v>
+        <v>0.01417</v>
       </c>
       <c r="C12">
-        <v>0.02085</v>
+        <v>0.02083</v>
       </c>
       <c r="D12">
-        <v>0.00368</v>
+        <v>0.00367</v>
       </c>
       <c r="E12">
-        <v>0.02603</v>
+        <v>0.02604</v>
       </c>
       <c r="F12">
         <v>0.02404</v>
@@ -6478,22 +6475,22 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02566</v>
+        <v>0.02557</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.00291</v>
+        <v>0.00292</v>
       </c>
       <c r="K12">
-        <v>0.01177</v>
+        <v>0.01175</v>
       </c>
       <c r="L12">
-        <v>0.00045</v>
+        <v>0.00044</v>
       </c>
       <c r="M12">
-        <v>0.00141</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6501,40 +6498,40 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <v>0.00983</v>
+        <v>0.0098</v>
       </c>
       <c r="C13">
         <v>0.009650000000000001</v>
       </c>
       <c r="D13">
-        <v>0.01011</v>
+        <v>0.01004</v>
       </c>
       <c r="E13">
-        <v>0.01848</v>
+        <v>0.01856</v>
       </c>
       <c r="F13">
         <v>0.00107</v>
       </c>
       <c r="G13">
-        <v>0.00481</v>
+        <v>0.00482</v>
       </c>
       <c r="H13">
-        <v>0.01451</v>
+        <v>0.01443</v>
       </c>
       <c r="I13">
-        <v>0.00296</v>
+        <v>0.00284</v>
       </c>
       <c r="J13">
-        <v>0.0044</v>
+        <v>0.00446</v>
       </c>
       <c r="K13">
-        <v>0.00256</v>
+        <v>0.00257</v>
       </c>
       <c r="L13">
-        <v>0.03742</v>
+        <v>0.03726</v>
       </c>
       <c r="M13">
-        <v>0.00187</v>
+        <v>0.00189</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6545,31 +6542,31 @@
         <v>0.00975</v>
       </c>
       <c r="C14">
-        <v>0.01413</v>
+        <v>0.01414</v>
       </c>
       <c r="D14">
-        <v>0.00284</v>
+        <v>0.00283</v>
       </c>
       <c r="E14">
-        <v>0.00063</v>
+        <v>0.00062</v>
       </c>
       <c r="F14">
-        <v>0.03723</v>
+        <v>0.03735</v>
       </c>
       <c r="G14">
-        <v>0.00495</v>
+        <v>0.00497</v>
       </c>
       <c r="H14">
-        <v>0.00645</v>
+        <v>0.00642</v>
       </c>
       <c r="I14">
         <v>0.0057</v>
       </c>
       <c r="J14">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="K14">
-        <v>0.00351</v>
+        <v>0.00348</v>
       </c>
       <c r="L14">
         <v>0.00026</v>
@@ -6583,40 +6580,40 @@
         <v>128</v>
       </c>
       <c r="B15">
-        <v>0.00953</v>
+        <v>0.00957</v>
       </c>
       <c r="C15">
-        <v>0.008800000000000001</v>
+        <v>0.008829999999999999</v>
       </c>
       <c r="D15">
-        <v>0.01068</v>
+        <v>0.01072</v>
       </c>
       <c r="E15">
-        <v>0.008699999999999999</v>
+        <v>0.00876</v>
       </c>
       <c r="F15">
         <v>0.00032</v>
       </c>
       <c r="G15">
-        <v>0.01446</v>
+        <v>0.01444</v>
       </c>
       <c r="H15">
-        <v>0.01331</v>
+        <v>0.01335</v>
       </c>
       <c r="I15">
-        <v>0.01324</v>
+        <v>0.01326</v>
       </c>
       <c r="J15">
-        <v>0.00582</v>
+        <v>0.00588</v>
       </c>
       <c r="K15">
-        <v>0.01348</v>
+        <v>0.01352</v>
       </c>
       <c r="L15">
-        <v>0.00534</v>
+        <v>0.0054</v>
       </c>
       <c r="M15">
-        <v>0.01117</v>
+        <v>0.01116</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6624,19 +6621,19 @@
         <v>81</v>
       </c>
       <c r="B16">
-        <v>0.00634</v>
+        <v>0.00632</v>
       </c>
       <c r="C16">
-        <v>0.00686</v>
+        <v>0.00685</v>
       </c>
       <c r="D16">
-        <v>0.00552</v>
+        <v>0.00549</v>
       </c>
       <c r="E16">
-        <v>0.02105</v>
+        <v>0.02098</v>
       </c>
       <c r="F16">
-        <v>0.00046</v>
+        <v>0.00045</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -6648,16 +6645,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01958</v>
+        <v>0.01963</v>
       </c>
       <c r="K16">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="L16">
-        <v>0.0164</v>
+        <v>0.0163</v>
       </c>
       <c r="M16">
-        <v>0.0028</v>
+        <v>0.00276</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6665,37 +6662,37 @@
         <v>129</v>
       </c>
       <c r="B17">
-        <v>0.00545</v>
+        <v>0.00549</v>
       </c>
       <c r="C17">
-        <v>0.00368</v>
+        <v>0.00374</v>
       </c>
       <c r="D17">
-        <v>0.008240000000000001</v>
+        <v>0.00825</v>
       </c>
       <c r="E17">
-        <v>0.01182</v>
+        <v>0.01181</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.007939999999999999</v>
+        <v>0.00791</v>
       </c>
       <c r="H17">
-        <v>0.00015</v>
+        <v>0.00035</v>
       </c>
       <c r="I17">
-        <v>0.00458</v>
+        <v>0.0046</v>
       </c>
       <c r="J17">
-        <v>0.00281</v>
+        <v>0.00284</v>
       </c>
       <c r="K17">
-        <v>0.0032</v>
+        <v>0.00323</v>
       </c>
       <c r="L17">
-        <v>0.02575</v>
+        <v>0.02576</v>
       </c>
       <c r="M17">
         <v>0.00261</v>
@@ -6706,40 +6703,40 @@
         <v>130</v>
       </c>
       <c r="B18">
-        <v>0.00465</v>
+        <v>0.00466</v>
       </c>
       <c r="C18">
-        <v>0.00247</v>
+        <v>0.00248</v>
       </c>
       <c r="D18">
-        <v>0.0081</v>
+        <v>0.008109999999999999</v>
       </c>
       <c r="E18">
-        <v>0.00162</v>
+        <v>0.00163</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0015</v>
+        <v>0.00151</v>
       </c>
       <c r="H18">
-        <v>0.00555</v>
+        <v>0.00556</v>
       </c>
       <c r="I18">
-        <v>0.00116</v>
+        <v>0.00117</v>
       </c>
       <c r="J18">
-        <v>0.02375</v>
+        <v>0.02396</v>
       </c>
       <c r="K18">
-        <v>0.00107</v>
+        <v>0.00108</v>
       </c>
       <c r="L18">
-        <v>0.00519</v>
+        <v>0.0052</v>
       </c>
       <c r="M18">
-        <v>0.02636</v>
+        <v>0.02627</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -6747,37 +6744,37 @@
         <v>131</v>
       </c>
       <c r="B19">
-        <v>0.00327</v>
+        <v>0.00326</v>
       </c>
       <c r="C19">
-        <v>0.00323</v>
+        <v>0.00319</v>
       </c>
       <c r="D19">
-        <v>0.00332</v>
+        <v>0.00337</v>
       </c>
       <c r="E19">
-        <v>0.00502</v>
+        <v>0.00479</v>
       </c>
       <c r="F19">
-        <v>0.00333</v>
+        <v>0.00334</v>
       </c>
       <c r="G19">
-        <v>0.0072</v>
+        <v>0.00719</v>
       </c>
       <c r="H19">
-        <v>0.00017</v>
+        <v>0.00018</v>
       </c>
       <c r="I19">
-        <v>0.00495</v>
+        <v>0.00493</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.00659</v>
+        <v>0.00663</v>
       </c>
       <c r="L19">
-        <v>0.00105</v>
+        <v>0.00127</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -6788,10 +6785,10 @@
         <v>132</v>
       </c>
       <c r="B20">
-        <v>0.00285</v>
+        <v>0.00286</v>
       </c>
       <c r="C20">
-        <v>0.00466</v>
+        <v>0.00467</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6800,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.01584</v>
+        <v>0.01591</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -6832,37 +6829,37 @@
         <v>0.00284</v>
       </c>
       <c r="C21">
-        <v>0.0044</v>
+        <v>0.00439</v>
       </c>
       <c r="D21">
         <v>0.00039</v>
       </c>
       <c r="E21">
-        <v>0.0057</v>
+        <v>0.00568</v>
       </c>
       <c r="F21">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.00963</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.00038</v>
+        <v>0.00039</v>
       </c>
       <c r="M21">
-        <v>0.00155</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -6870,40 +6867,40 @@
         <v>133</v>
       </c>
       <c r="B22">
-        <v>0.0026</v>
+        <v>0.00258</v>
       </c>
       <c r="C22">
-        <v>0.00207</v>
+        <v>0.00206</v>
       </c>
       <c r="D22">
-        <v>0.00345</v>
+        <v>0.0034</v>
       </c>
       <c r="E22">
-        <v>0.00247</v>
+        <v>0.00248</v>
       </c>
       <c r="F22">
         <v>0.00113</v>
       </c>
       <c r="G22">
-        <v>0.0068</v>
+        <v>0.00677</v>
       </c>
       <c r="H22">
         <v>0.00027</v>
       </c>
       <c r="I22">
-        <v>0.008189999999999999</v>
+        <v>0.00801</v>
       </c>
       <c r="J22">
-        <v>0.00179</v>
+        <v>0.00173</v>
       </c>
       <c r="K22">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="L22">
-        <v>0.0031</v>
+        <v>0.00311</v>
       </c>
       <c r="M22">
-        <v>0.00145</v>
+        <v>0.00144</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6920,31 +6917,31 @@
         <v>0.00261</v>
       </c>
       <c r="E23">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="H23">
         <v>0.00028</v>
       </c>
       <c r="I23">
-        <v>0.00201</v>
+        <v>0.00198</v>
       </c>
       <c r="J23">
-        <v>0.00051</v>
+        <v>0.00053</v>
       </c>
       <c r="K23">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="L23">
-        <v>0.008449999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M23">
-        <v>0.00067</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6952,40 +6949,40 @@
         <v>135</v>
       </c>
       <c r="B24">
-        <v>0.00144</v>
+        <v>0.00143</v>
       </c>
       <c r="C24">
-        <v>0.00102</v>
+        <v>0.00101</v>
       </c>
       <c r="D24">
         <v>0.00209</v>
       </c>
       <c r="E24">
-        <v>0.00435</v>
+        <v>0.0043</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00072</v>
+        <v>0.00071</v>
       </c>
       <c r="H24">
         <v>0.00019</v>
       </c>
       <c r="I24">
-        <v>0.00041</v>
+        <v>0.00043</v>
       </c>
       <c r="J24">
-        <v>0.00384</v>
+        <v>0.00387</v>
       </c>
       <c r="K24">
-        <v>0.00086</v>
+        <v>0.00085</v>
       </c>
       <c r="L24">
-        <v>0.00534</v>
+        <v>0.00531</v>
       </c>
       <c r="M24">
-        <v>0.00185</v>
+        <v>0.00188</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -6993,25 +6990,25 @@
         <v>136</v>
       </c>
       <c r="B25">
-        <v>0.00122</v>
+        <v>0.00123</v>
       </c>
       <c r="C25">
-        <v>0.00162</v>
+        <v>0.00163</v>
       </c>
       <c r="D25">
         <v>0.0005999999999999999</v>
       </c>
       <c r="E25">
-        <v>0.00746</v>
+        <v>0.0075</v>
       </c>
       <c r="F25">
-        <v>0.00012</v>
+        <v>0.00013</v>
       </c>
       <c r="G25">
         <v>0.00022</v>
       </c>
       <c r="H25">
-        <v>0.00033</v>
+        <v>0.00034</v>
       </c>
       <c r="I25">
         <v>0.00018</v>
@@ -7020,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.00208</v>
+        <v>0.00207</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -7034,16 +7031,16 @@
         <v>47</v>
       </c>
       <c r="B26">
-        <v>0.00118</v>
+        <v>0.00119</v>
       </c>
       <c r="C26">
-        <v>0.00182</v>
+        <v>0.00183</v>
       </c>
       <c r="D26">
         <v>0.00017</v>
       </c>
       <c r="E26">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F26">
         <v>0.00052</v>
@@ -7052,19 +7049,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.00475</v>
+        <v>0.00474</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M26">
         <v>0.00044</v>
@@ -7075,40 +7072,40 @@
         <v>137</v>
       </c>
       <c r="B27">
-        <v>0.00112</v>
+        <v>0.00104</v>
       </c>
       <c r="C27">
-        <v>0.00066</v>
+        <v>0.00103</v>
       </c>
       <c r="D27">
-        <v>0.00184</v>
+        <v>0.00105</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.00408</v>
       </c>
       <c r="F27">
-        <v>0.00173</v>
+        <v>4E-05</v>
       </c>
       <c r="G27">
-        <v>4E-05</v>
+        <v>0.0005</v>
       </c>
       <c r="H27">
-        <v>0.00041</v>
+        <v>0.00043</v>
       </c>
       <c r="I27">
-        <v>6.999999999999999E-05</v>
+        <v>0.00059</v>
       </c>
       <c r="J27">
-        <v>0.00033</v>
+        <v>0.00077</v>
       </c>
       <c r="K27">
-        <v>0.00112</v>
+        <v>0.00175</v>
       </c>
       <c r="L27">
-        <v>0.0063</v>
+        <v>0.0009</v>
       </c>
       <c r="M27">
-        <v>0.00095</v>
+        <v>0.00101</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -7116,163 +7113,163 @@
         <v>138</v>
       </c>
       <c r="B28">
-        <v>0.00104</v>
+        <v>0.00103</v>
       </c>
       <c r="C28">
-        <v>0.00103</v>
+        <v>0.00167</v>
       </c>
       <c r="D28">
-        <v>0.00106</v>
+        <v>3E-05</v>
       </c>
       <c r="E28">
-        <v>0.00412</v>
+        <v>0.00024</v>
       </c>
       <c r="F28">
-        <v>4E-05</v>
+        <v>0.00512</v>
       </c>
       <c r="G28">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0.00043</v>
+        <v>0.00034</v>
       </c>
       <c r="I28">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.00076</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0.00178</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.00091</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.00102</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>0.00103</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="C29">
-        <v>0.00167</v>
+        <v>0.00147</v>
       </c>
       <c r="D29">
-        <v>3E-05</v>
+        <v>0.00019</v>
       </c>
       <c r="E29">
-        <v>0.00024</v>
+        <v>0.00235</v>
       </c>
       <c r="F29">
-        <v>0.0051</v>
+        <v>0.00022</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="H29">
+        <v>0.00276</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.00047</v>
+      </c>
+      <c r="K29">
+        <v>0.00011</v>
+      </c>
+      <c r="L29">
         <v>0.00035</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
-        <v>0.00016</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B30">
-        <v>0.0009700000000000001</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="C30">
-        <v>0.00146</v>
+        <v>0.00142</v>
       </c>
       <c r="D30">
-        <v>0.0002</v>
+        <v>0.00017</v>
       </c>
       <c r="E30">
-        <v>0.00233</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>4E-05</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.00274</v>
+        <v>0.00413</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.00049</v>
+        <v>0.0004</v>
       </c>
       <c r="K30">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.00034</v>
+        <v>0.00042</v>
       </c>
       <c r="M30">
-        <v>0.00032</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="B31">
-        <v>0.00094</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="C31">
-        <v>0.00143</v>
+        <v>0.00034</v>
       </c>
       <c r="D31">
-        <v>0.00017</v>
+        <v>0.00185</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.00066</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="H31">
-        <v>0.00418</v>
+        <v>0.00041</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="J31">
-        <v>0.0004</v>
+        <v>0.00034</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.00114</v>
       </c>
       <c r="L31">
-        <v>0.00041</v>
+        <v>0.00631</v>
       </c>
       <c r="M31">
-        <v>0.00029</v>
+        <v>0.00096</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7283,19 +7280,19 @@
         <v>0.0008</v>
       </c>
       <c r="C32">
-        <v>0.00057</v>
+        <v>0.00056</v>
       </c>
       <c r="D32">
         <v>0.00117</v>
       </c>
       <c r="E32">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="F32">
-        <v>0.00129</v>
+        <v>0.00127</v>
       </c>
       <c r="G32">
-        <v>0.00052</v>
+        <v>0.00053</v>
       </c>
       <c r="H32">
         <v>5E-05</v>
@@ -7304,16 +7301,16 @@
         <v>0.00041</v>
       </c>
       <c r="J32">
-        <v>0.00216</v>
+        <v>0.00213</v>
       </c>
       <c r="K32">
-        <v>0.00038</v>
+        <v>0.00036</v>
       </c>
       <c r="L32">
-        <v>0.00185</v>
+        <v>0.00188</v>
       </c>
       <c r="M32">
-        <v>0.00232</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -7324,22 +7321,22 @@
         <v>0.00076</v>
       </c>
       <c r="C33">
-        <v>0.00069</v>
+        <v>0.00068</v>
       </c>
       <c r="D33">
-        <v>0.00088</v>
+        <v>0.00087</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.00027</v>
+        <v>0.00028</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.00177</v>
+        <v>0.00175</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -7348,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0.00058</v>
+        <v>0.00056</v>
       </c>
       <c r="L33">
-        <v>0.00342</v>
+        <v>0.00341</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -7380,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -7392,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.00614</v>
+        <v>0.00612</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -7415,7 +7412,7 @@
         <v>0.00038</v>
       </c>
       <c r="F35">
-        <v>0.00184</v>
+        <v>0.00185</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -7427,16 +7424,16 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.00037</v>
+        <v>0.00039</v>
       </c>
       <c r="K35">
-        <v>0.0004</v>
+        <v>0.00041</v>
       </c>
       <c r="L35">
         <v>0.0005999999999999999</v>
       </c>
       <c r="M35">
-        <v>0.00015</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -7456,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.00323</v>
+        <v>0.00324</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -7488,7 +7485,7 @@
         <v>0.00054</v>
       </c>
       <c r="C37">
-        <v>0.00044</v>
+        <v>0.00045</v>
       </c>
       <c r="D37">
         <v>0.0007</v>
@@ -7506,10 +7503,10 @@
         <v>4E-05</v>
       </c>
       <c r="I37">
-        <v>0.00249</v>
+        <v>0.00252</v>
       </c>
       <c r="J37">
-        <v>0.00024</v>
+        <v>0.00016</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -7573,7 +7570,7 @@
         <v>0.0005</v>
       </c>
       <c r="D39">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -7585,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.00076</v>
+        <v>0.00077</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7594,13 +7591,13 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="L39">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="M39">
-        <v>0.00043</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -7608,25 +7605,25 @@
         <v>148</v>
       </c>
       <c r="B40">
-        <v>0.00038</v>
+        <v>0.00039</v>
       </c>
       <c r="C40">
         <v>0.0005999999999999999</v>
       </c>
       <c r="D40">
-        <v>4E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.00087</v>
+        <v>0.00088</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.001</v>
+        <v>0.00101</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7673,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.0008</v>
+        <v>0.00081</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -7699,31 +7696,31 @@
         <v>0.00077</v>
       </c>
       <c r="E42">
-        <v>0.0001</v>
+        <v>5E-05</v>
       </c>
       <c r="F42">
         <v>6E-05</v>
       </c>
       <c r="G42">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="H42">
-        <v>0.00011</v>
+        <v>0.00012</v>
       </c>
       <c r="I42">
-        <v>0.00016</v>
+        <v>0.00017</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="L42">
-        <v>0.00291</v>
+        <v>0.00294</v>
       </c>
       <c r="M42">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -7755,7 +7752,7 @@
         <v>0.00014</v>
       </c>
       <c r="J43">
-        <v>6.999999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0.00032</v>
@@ -7772,7 +7769,7 @@
         <v>152</v>
       </c>
       <c r="B44">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C44">
         <v>0.00037</v>
@@ -7790,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -7802,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -7813,40 +7810,40 @@
         <v>153</v>
       </c>
       <c r="B45">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="C45">
-        <v>0.00025</v>
+        <v>5E-05</v>
       </c>
       <c r="D45">
-        <v>0.00037</v>
+        <v>0.00067</v>
       </c>
       <c r="E45">
-        <v>0.00079</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G45">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0.00022</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.00059</v>
+        <v>0.00043</v>
       </c>
       <c r="K45">
-        <v>0.00123</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.00173</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -7854,40 +7851,40 @@
         <v>154</v>
       </c>
       <c r="B46">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="C46">
-        <v>5E-05</v>
+        <v>0.00024</v>
       </c>
       <c r="D46">
-        <v>0.00068</v>
+        <v>0.00037</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.00071</v>
       </c>
       <c r="F46">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
       <c r="H46">
-        <v>9.000000000000001E-05</v>
+        <v>0.00022</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.00046</v>
+        <v>0.00061</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>0.00123</v>
       </c>
       <c r="L46">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>0.00175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -7904,7 +7901,7 @@
         <v>0.0002</v>
       </c>
       <c r="E47">
-        <v>0.00137</v>
+        <v>0.00136</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -7922,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.00029</v>
+        <v>0.0003</v>
       </c>
       <c r="L47">
         <v>0.00038</v>
@@ -7945,7 +7942,7 @@
         <v>0.00027</v>
       </c>
       <c r="E48">
-        <v>0.00115</v>
+        <v>0.00114</v>
       </c>
       <c r="F48">
         <v>4E-05</v>
@@ -7963,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="L48">
         <v>0.00105</v>
@@ -7980,13 +7977,13 @@
         <v>0.00024</v>
       </c>
       <c r="C49">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.00207</v>
+        <v>0.00206</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -8059,13 +8056,13 @@
         <v>159</v>
       </c>
       <c r="B51">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="C51">
         <v>0.00016</v>
       </c>
       <c r="D51">
-        <v>0.00033</v>
+        <v>0.00032</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -8074,25 +8071,25 @@
         <v>6E-05</v>
       </c>
       <c r="G51">
-        <v>0.00084</v>
+        <v>0.00085</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0.00076</v>
+        <v>0.00077</v>
       </c>
       <c r="J51">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0.00016</v>
+        <v>0.00017</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8100,28 +8097,28 @@
         <v>160</v>
       </c>
       <c r="B52">
-        <v>0.00019</v>
+        <v>0.00018</v>
       </c>
       <c r="C52">
         <v>0.00019</v>
       </c>
       <c r="D52">
-        <v>0.0002</v>
+        <v>0.00017</v>
       </c>
       <c r="E52">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="F52">
         <v>0.00038</v>
       </c>
       <c r="G52">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="H52">
         <v>9.000000000000001E-05</v>
       </c>
       <c r="I52">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -8130,10 +8127,10 @@
         <v>0.00011</v>
       </c>
       <c r="L52">
-        <v>0.00053</v>
+        <v>0.00054</v>
       </c>
       <c r="M52">
-        <v>0.00013</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8171,7 +8168,7 @@
         <v>3E-05</v>
       </c>
       <c r="L53">
-        <v>6.999999999999999E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -8185,7 +8182,7 @@
         <v>0.00015</v>
       </c>
       <c r="C54">
-        <v>0.00024</v>
+        <v>0.00025</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -8200,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.00071</v>
+        <v>0.00072</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -8229,7 +8226,7 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="D55">
-        <v>0.00026</v>
+        <v>0.00027</v>
       </c>
       <c r="E55">
         <v>0.0004</v>
@@ -8253,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.0008899999999999999</v>
+        <v>0.00091</v>
       </c>
       <c r="M55">
         <v>0.00042</v>
@@ -8288,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.001</v>
+        <v>0.00102</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -8297,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.00092</v>
+        <v>0.00091</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8305,7 +8302,7 @@
         <v>165</v>
       </c>
       <c r="B57">
-        <v>0.00013</v>
+        <v>0.00014</v>
       </c>
       <c r="C57">
         <v>0.00017</v>
@@ -8320,10 +8317,10 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="G57">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="H57">
-        <v>0.00027</v>
+        <v>0.00028</v>
       </c>
       <c r="I57">
         <v>0.00014</v>
@@ -8338,7 +8335,7 @@
         <v>0.00015</v>
       </c>
       <c r="M57">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8358,28 +8355,28 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.00045</v>
+        <v>0.00046</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="K58">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8405,7 +8402,7 @@
         <v>0.00025</v>
       </c>
       <c r="H59">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="I59">
         <v>0.00016</v>
@@ -8414,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0.00014</v>
+        <v>0.00015</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -8455,13 +8452,13 @@
         <v>0.00041</v>
       </c>
       <c r="K60">
-        <v>9.000000000000001E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="L60">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="M60">
-        <v>0.00104</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -8472,22 +8469,22 @@
         <v>0.00011</v>
       </c>
       <c r="C61">
-        <v>0.00016</v>
+        <v>0.00018</v>
       </c>
       <c r="D61">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0.00025</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="F61">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -8499,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -8513,22 +8510,22 @@
         <v>0.00011</v>
       </c>
       <c r="C62">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="E62">
-        <v>0.00091</v>
+        <v>0.00025</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.00023</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -8540,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -8566,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.0002</v>
+        <v>0.00021</v>
       </c>
       <c r="H63">
         <v>0.00011</v>
@@ -8619,10 +8616,10 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0.00024</v>
+        <v>0.00025</v>
       </c>
       <c r="L64">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="M64">
         <v>0.00014</v>
@@ -8648,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -8677,20 +8674,20 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="C66">
-        <v>0.00013</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="D66">
+        <v>0.00012</v>
+      </c>
+      <c r="E66">
+        <v>0.0001</v>
+      </c>
+      <c r="F66">
+        <v>0.00016</v>
+      </c>
+      <c r="G66">
         <v>2E-05</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0.00045</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
         <v>0</v>
       </c>
@@ -8701,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>6E-05</v>
+        <v>0.00029</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -8718,19 +8715,19 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="C67">
-        <v>6.999999999999999E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="D67">
-        <v>0.00012</v>
+        <v>2E-05</v>
       </c>
       <c r="E67">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.00016</v>
+        <v>0.00046</v>
       </c>
       <c r="G67">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -8742,13 +8739,13 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0.00028</v>
+        <v>6E-05</v>
       </c>
       <c r="L67">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -8774,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.00022</v>
+        <v>0.00023</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -8809,28 +8806,28 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="G69">
-        <v>0.00031</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>3E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="I69">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>0.00052</v>
       </c>
       <c r="K69">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="M69">
-        <v>0.00016</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -8850,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H70">
-        <v>0.00014</v>
+        <v>3E-05</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="J70">
-        <v>0.00051</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="L70">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>0.00039</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -8906,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -8950,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.0009700000000000001</v>
+        <v>0.00098</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8964,22 +8961,22 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="D73">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -8988,13 +8985,13 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>0.00023</v>
+        <v>0.00049</v>
       </c>
       <c r="M73">
-        <v>0.00062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -9002,25 +8999,25 @@
         <v>180</v>
       </c>
       <c r="B74">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="C74">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0.0001</v>
+        <v>0.00019</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -9029,13 +9026,13 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="L74">
-        <v>0.00049</v>
+        <v>0.00021</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.00058</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -9052,7 +9049,7 @@
         <v>0.00011</v>
       </c>
       <c r="E75">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9073,10 +9070,10 @@
         <v>0.00024</v>
       </c>
       <c r="L75">
-        <v>0.00015</v>
+        <v>0.00016</v>
       </c>
       <c r="M75">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -9090,13 +9087,13 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="D76">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.00015</v>
+        <v>0.00016</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -9105,7 +9102,7 @@
         <v>0.00014</v>
       </c>
       <c r="I76">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -9125,25 +9122,25 @@
         <v>183</v>
       </c>
       <c r="B77">
+        <v>6E-05</v>
+      </c>
+      <c r="C77">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0.0001</v>
+      </c>
+      <c r="F77">
         <v>5E-05</v>
-      </c>
-      <c r="C77">
-        <v>2E-05</v>
-      </c>
-      <c r="D77">
-        <v>9.000000000000001E-05</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
       </c>
       <c r="G77">
         <v>6E-05</v>
       </c>
       <c r="H77">
-        <v>4E-05</v>
+        <v>0.00014</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -9155,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.00043</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -9169,23 +9166,23 @@
         <v>5E-05</v>
       </c>
       <c r="C78">
-        <v>8.000000000000001E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="E78">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>6E-05</v>
+      </c>
+      <c r="H78">
         <v>4E-05</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0.00015</v>
-      </c>
       <c r="I78">
         <v>0</v>
       </c>
@@ -9196,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>0.00043</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -9301,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -9380,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -9412,7 +9409,7 @@
         <v>190</v>
       </c>
       <c r="B84">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="C84">
         <v>4E-05</v>
@@ -9427,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -9524,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -9585,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.00019</v>
+        <v>0.0002</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -9755,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9808,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -9822,13 +9819,13 @@
         <v>200</v>
       </c>
       <c r="B94">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="C94">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D94">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E94">
         <v>8.000000000000001E-05</v>
@@ -9878,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="H95">
-        <v>6.999999999999999E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -9919,10 +9916,10 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -9989,16 +9986,16 @@
         <v>1E-05</v>
       </c>
       <c r="C98">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D98">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>3E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -10016,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -10030,16 +10027,16 @@
         <v>1E-05</v>
       </c>
       <c r="C99">
+        <v>1E-05</v>
+      </c>
+      <c r="D99">
         <v>2E-05</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>6.999999999999999E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -10057,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -10352,19 +10349,19 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B107">
         <v>1E-05</v>
       </c>
       <c r="C107">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="E107">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -10385,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -10393,16 +10390,16 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="B108">
         <v>1E-05</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D108">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -10414,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -10426,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>6.999999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -10446,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -10455,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -10563,16 +10560,16 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D112">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10581,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>3E-05</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -10604,16 +10601,16 @@
         <v>0</v>
       </c>
       <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
         <v>1E-05</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10622,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -10645,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -10726,7 +10723,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10775,40 +10772,40 @@
         <v>219</v>
       </c>
       <c r="B2">
-        <v>0.52598</v>
+        <v>0.52605</v>
       </c>
       <c r="C2">
-        <v>0.52903</v>
+        <v>0.52926</v>
       </c>
       <c r="D2">
-        <v>0.52119</v>
+        <v>0.52099</v>
       </c>
       <c r="E2">
-        <v>0.55819</v>
+        <v>0.55809</v>
       </c>
       <c r="F2">
-        <v>0.25396</v>
+        <v>0.25514</v>
       </c>
       <c r="G2">
-        <v>0.59572</v>
+        <v>0.59526</v>
       </c>
       <c r="H2">
-        <v>0.71524</v>
+        <v>0.71458</v>
       </c>
       <c r="I2">
-        <v>0.60825</v>
+        <v>0.6083499999999999</v>
       </c>
       <c r="J2">
-        <v>0.37885</v>
+        <v>0.37896</v>
       </c>
       <c r="K2">
-        <v>0.45361</v>
+        <v>0.4534</v>
       </c>
       <c r="L2">
-        <v>0.55104</v>
+        <v>0.55075</v>
       </c>
       <c r="M2">
-        <v>0.51496</v>
+        <v>0.51417</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10816,40 +10813,40 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0.26609</v>
+        <v>0.26606</v>
       </c>
       <c r="C3">
-        <v>0.27354</v>
+        <v>0.27309</v>
       </c>
       <c r="D3">
-        <v>0.25434</v>
+        <v>0.25496</v>
       </c>
       <c r="E3">
-        <v>0.3636</v>
+        <v>0.3624</v>
       </c>
       <c r="F3">
-        <v>0.26519</v>
+        <v>0.26441</v>
       </c>
       <c r="G3">
-        <v>0.36409</v>
+        <v>0.36433</v>
       </c>
       <c r="H3">
-        <v>0.18514</v>
+        <v>0.18524</v>
       </c>
       <c r="I3">
-        <v>0.3516</v>
+        <v>0.35135</v>
       </c>
       <c r="J3">
-        <v>0.26247</v>
+        <v>0.26345</v>
       </c>
       <c r="K3">
-        <v>0.17929</v>
+        <v>0.18121</v>
       </c>
       <c r="L3">
-        <v>0.30308</v>
+        <v>0.30365</v>
       </c>
       <c r="M3">
-        <v>0.15106</v>
+        <v>0.1511</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10857,40 +10854,40 @@
         <v>220</v>
       </c>
       <c r="B4">
-        <v>0.12224</v>
+        <v>0.12171</v>
       </c>
       <c r="C4">
-        <v>0.10087</v>
+        <v>0.10048</v>
       </c>
       <c r="D4">
-        <v>0.15592</v>
+        <v>0.1552</v>
       </c>
       <c r="E4">
-        <v>0.03258</v>
+        <v>0.03243</v>
       </c>
       <c r="F4">
-        <v>0.28777</v>
+        <v>0.28692</v>
       </c>
       <c r="G4">
-        <v>0.0061</v>
+        <v>0.00618</v>
       </c>
       <c r="H4">
-        <v>0.02613</v>
+        <v>0.02605</v>
       </c>
       <c r="I4">
-        <v>0.00505</v>
+        <v>0.00503</v>
       </c>
       <c r="J4">
-        <v>0.22975</v>
+        <v>0.2295</v>
       </c>
       <c r="K4">
-        <v>0.3078</v>
+        <v>0.30614</v>
       </c>
       <c r="L4">
-        <v>0.0308</v>
+        <v>0.03074</v>
       </c>
       <c r="M4">
-        <v>0.28324</v>
+        <v>0.28162</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10898,31 +10895,31 @@
         <v>221</v>
       </c>
       <c r="B5">
-        <v>0.0242</v>
+        <v>0.02426</v>
       </c>
       <c r="C5">
-        <v>0.03529</v>
+        <v>0.03538</v>
       </c>
       <c r="D5">
         <v>0.00672</v>
       </c>
       <c r="E5">
-        <v>0.01436</v>
+        <v>0.01444</v>
       </c>
       <c r="F5">
-        <v>0.0956</v>
+        <v>0.09598</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0129</v>
+        <v>0.01289</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00967</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="K5">
         <v>0.01464</v>
@@ -10939,40 +10936,40 @@
         <v>222</v>
       </c>
       <c r="B6">
-        <v>0.02397</v>
+        <v>0.024</v>
       </c>
       <c r="C6">
-        <v>0.02964</v>
+        <v>0.02967</v>
       </c>
       <c r="D6">
-        <v>0.01504</v>
+        <v>0.01507</v>
       </c>
       <c r="E6">
-        <v>0.00658</v>
+        <v>0.00661</v>
       </c>
       <c r="F6">
-        <v>0.07374</v>
+        <v>0.07385</v>
       </c>
       <c r="G6">
-        <v>0.02276</v>
+        <v>0.02287</v>
       </c>
       <c r="H6">
-        <v>0.00813</v>
+        <v>0.00814</v>
       </c>
       <c r="I6">
-        <v>0.02516</v>
+        <v>0.0252</v>
       </c>
       <c r="J6">
-        <v>0.00203</v>
+        <v>0.00201</v>
       </c>
       <c r="K6">
-        <v>0.02752</v>
+        <v>0.02755</v>
       </c>
       <c r="L6">
-        <v>0.00167</v>
+        <v>0.00166</v>
       </c>
       <c r="M6">
-        <v>0.0023</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10980,13 +10977,13 @@
         <v>223</v>
       </c>
       <c r="B7">
-        <v>0.01012</v>
+        <v>0.01007</v>
       </c>
       <c r="C7">
         <v>0.00063</v>
       </c>
       <c r="D7">
-        <v>0.02507</v>
+        <v>0.02496</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -11004,16 +11001,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.10592</v>
+        <v>0.10532</v>
       </c>
       <c r="K7">
-        <v>0.00678</v>
+        <v>0.00677</v>
       </c>
       <c r="L7">
-        <v>0.04739</v>
+        <v>0.04736</v>
       </c>
       <c r="M7">
-        <v>0.02837</v>
+        <v>0.02823</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -11021,40 +11018,40 @@
         <v>224</v>
       </c>
       <c r="B8">
-        <v>0.00776</v>
+        <v>0.008</v>
       </c>
       <c r="C8">
-        <v>0.00805</v>
+        <v>0.00894</v>
       </c>
       <c r="D8">
-        <v>0.00729</v>
+        <v>0.00651</v>
       </c>
       <c r="E8">
-        <v>0.00146</v>
+        <v>0.0095</v>
       </c>
       <c r="F8">
+        <v>0.00188</v>
+      </c>
+      <c r="G8">
+        <v>0.00385</v>
+      </c>
+      <c r="H8">
         <v>0.01722</v>
       </c>
-      <c r="G8">
-        <v>0.00203</v>
-      </c>
-      <c r="H8">
-        <v>0.00688</v>
-      </c>
       <c r="I8">
-        <v>0.00226</v>
+        <v>0.00369</v>
       </c>
       <c r="J8">
-        <v>0.00204</v>
+        <v>0.0023</v>
       </c>
       <c r="K8">
-        <v>0.00498</v>
+        <v>0.00112</v>
       </c>
       <c r="L8">
-        <v>0.02215</v>
+        <v>0.01753</v>
       </c>
       <c r="M8">
-        <v>0.00288</v>
+        <v>0.00762</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -11062,40 +11059,40 @@
         <v>225</v>
       </c>
       <c r="B9">
-        <v>0.00752</v>
+        <v>0.00774</v>
       </c>
       <c r="C9">
-        <v>0.00843</v>
+        <v>0.00805</v>
       </c>
       <c r="D9">
-        <v>0.00608</v>
+        <v>0.00727</v>
       </c>
       <c r="E9">
-        <v>0.008200000000000001</v>
+        <v>0.00146</v>
       </c>
       <c r="F9">
-        <v>0.00188</v>
+        <v>0.01721</v>
       </c>
       <c r="G9">
-        <v>0.00383</v>
+        <v>0.00204</v>
       </c>
       <c r="H9">
-        <v>0.01649</v>
+        <v>0.00688</v>
       </c>
       <c r="I9">
-        <v>0.00358</v>
+        <v>0.00227</v>
       </c>
       <c r="J9">
-        <v>0.00233</v>
+        <v>0.00201</v>
       </c>
       <c r="K9">
-        <v>0.00113</v>
+        <v>0.00491</v>
       </c>
       <c r="L9">
-        <v>0.01755</v>
+        <v>0.02216</v>
       </c>
       <c r="M9">
-        <v>0.0052</v>
+        <v>0.00287</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -11103,10 +11100,10 @@
         <v>226</v>
       </c>
       <c r="B10">
-        <v>0.00251</v>
+        <v>0.0025</v>
       </c>
       <c r="C10">
-        <v>0.0041</v>
+        <v>0.00409</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -11121,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01197</v>
+        <v>0.01191</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -11144,40 +11141,40 @@
         <v>227</v>
       </c>
       <c r="B11">
-        <v>0.00167</v>
+        <v>0.00166</v>
       </c>
       <c r="C11">
         <v>0.00205</v>
       </c>
       <c r="D11">
-        <v>0.00108</v>
+        <v>0.00105</v>
       </c>
       <c r="E11">
-        <v>0.00882</v>
+        <v>0.008829999999999999</v>
       </c>
       <c r="F11">
         <v>6E-05</v>
       </c>
       <c r="G11">
-        <v>0.00122</v>
+        <v>0.00121</v>
       </c>
       <c r="H11">
         <v>0.0004</v>
       </c>
       <c r="I11">
-        <v>0.00099</v>
+        <v>0.001</v>
       </c>
       <c r="J11">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.00016</v>
+        <v>0.00017</v>
       </c>
       <c r="L11">
-        <v>0.0031</v>
+        <v>0.00305</v>
       </c>
       <c r="M11">
-        <v>0.0005</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -11185,40 +11182,40 @@
         <v>228</v>
       </c>
       <c r="B12">
-        <v>0.00121</v>
+        <v>0.00122</v>
       </c>
       <c r="C12">
-        <v>0.00121</v>
+        <v>0.00122</v>
       </c>
       <c r="D12">
         <v>0.00122</v>
       </c>
       <c r="E12">
-        <v>0.00204</v>
+        <v>0.00207</v>
       </c>
       <c r="F12">
-        <v>0.00018</v>
+        <v>0.00017</v>
       </c>
       <c r="G12">
-        <v>0.00266</v>
+        <v>0.00267</v>
       </c>
       <c r="H12">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="I12">
-        <v>0.00196</v>
+        <v>0.00195</v>
       </c>
       <c r="J12">
         <v>0.0004</v>
       </c>
       <c r="K12">
-        <v>0.00125</v>
+        <v>0.00126</v>
       </c>
       <c r="L12">
-        <v>0.00091</v>
+        <v>0.00092</v>
       </c>
       <c r="M12">
-        <v>0.00073</v>
+        <v>0.00074</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -11238,13 +11235,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.00046</v>
+        <v>0.00045</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.00381</v>
+        <v>0.00382</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -11276,31 +11273,31 @@
         <v>0.00047</v>
       </c>
       <c r="E14">
-        <v>0.00038</v>
+        <v>0.00039</v>
       </c>
       <c r="F14">
-        <v>0.00045</v>
+        <v>0.00046</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.00264</v>
+        <v>0.00263</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.00207</v>
+        <v>0.0021</v>
       </c>
       <c r="K14">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.00141</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11326,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.00335</v>
+        <v>0.00334</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -11341,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00029</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -11349,7 +11346,7 @@
         <v>232</v>
       </c>
       <c r="B16">
-        <v>0.00071</v>
+        <v>0.00072</v>
       </c>
       <c r="C16">
         <v>0.00014</v>
@@ -11373,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.00033</v>
+        <v>0.00034</v>
       </c>
       <c r="K16">
-        <v>0.00042</v>
+        <v>0.00043</v>
       </c>
       <c r="L16">
-        <v>0.0062</v>
+        <v>0.00621</v>
       </c>
       <c r="M16">
-        <v>0.00095</v>
+        <v>0.00096</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -11408,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -11420,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.00614</v>
+        <v>0.00612</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -11431,7 +11428,7 @@
         <v>234</v>
       </c>
       <c r="B18">
-        <v>0.0005999999999999999</v>
+        <v>0.00061</v>
       </c>
       <c r="C18">
         <v>0.00035</v>
@@ -11446,25 +11443,25 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0015</v>
+        <v>0.00151</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.00116</v>
+        <v>0.00117</v>
       </c>
       <c r="J18">
-        <v>0.0016</v>
+        <v>0.00161</v>
       </c>
       <c r="K18">
         <v>0.00016</v>
       </c>
       <c r="L18">
-        <v>0.002</v>
+        <v>0.00201</v>
       </c>
       <c r="M18">
-        <v>0.00056</v>
+        <v>0.00057</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -11490,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.00245</v>
+        <v>0.00244</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -11531,19 +11528,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.00068</v>
+        <v>0.00069</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.00044</v>
+        <v>0.00041</v>
       </c>
       <c r="K20">
         <v>0.00076</v>
       </c>
       <c r="L20">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -11557,13 +11554,13 @@
         <v>0.00024</v>
       </c>
       <c r="C21">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.00207</v>
+        <v>0.00206</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -11622,7 +11619,7 @@
         <v>0.00024</v>
       </c>
       <c r="K22">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="L22">
         <v>0.00014</v>
@@ -11654,22 +11651,22 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0008899999999999999</v>
+        <v>0.0009</v>
       </c>
       <c r="K23">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="L23">
-        <v>0.00051</v>
+        <v>0.0005</v>
       </c>
       <c r="M23">
-        <v>0.00073</v>
+        <v>0.00074</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -11707,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.00164</v>
+        <v>0.00166</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -11771,7 +11768,7 @@
         <v>0.00025</v>
       </c>
       <c r="F26">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -11806,7 +11803,7 @@
         <v>0.00015</v>
       </c>
       <c r="D27">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -11868,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -11894,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -11932,7 +11929,7 @@
         <v>0.00011</v>
       </c>
       <c r="E30">
-        <v>4E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -11947,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.00051</v>
+        <v>0.00053</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -11982,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -12049,7 +12046,7 @@
         <v>2E-05</v>
       </c>
       <c r="C33">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -12064,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.0001</v>
+        <v>0.00011</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -12102,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>5E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -12111,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.0002</v>
+        <v>0.00016</v>
       </c>
       <c r="K34">
         <v>9.000000000000001E-05</v>
@@ -12196,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -12281,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -12295,17 +12292,17 @@
         <v>1E-05</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D39">
+        <v>1E-05</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>2E-05</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -12322,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.00012</v>
+        <v>4E-05</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -12336,16 +12333,16 @@
         <v>1E-05</v>
       </c>
       <c r="C40">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -12360,10 +12357,10 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="L40">
-        <v>4E-05</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -12377,10 +12374,10 @@
         <v>1E-05</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D41">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -12392,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -12401,53 +12398,12 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B42">
-        <v>1E-05</v>
-      </c>
-      <c r="C42">
-        <v>1E-05</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>2E-05</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
         <v>0</v>
       </c>
     </row>
